--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2028600</v>
+        <v>2014600</v>
       </c>
       <c r="E8" s="3">
-        <v>1307700</v>
+        <v>1298800</v>
       </c>
       <c r="F8" s="3">
-        <v>1070500</v>
+        <v>1063100</v>
       </c>
       <c r="G8" s="3">
-        <v>735200</v>
+        <v>730100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>312300</v>
+        <v>310200</v>
       </c>
       <c r="E9" s="3">
-        <v>227100</v>
+        <v>225600</v>
       </c>
       <c r="F9" s="3">
-        <v>223600</v>
+        <v>222000</v>
       </c>
       <c r="G9" s="3">
-        <v>125800</v>
+        <v>125000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1716200</v>
+        <v>1704500</v>
       </c>
       <c r="E10" s="3">
-        <v>1080600</v>
+        <v>1073200</v>
       </c>
       <c r="F10" s="3">
-        <v>846900</v>
+        <v>841100</v>
       </c>
       <c r="G10" s="3">
-        <v>609400</v>
+        <v>605200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>75300</v>
+        <v>74800</v>
       </c>
       <c r="E14" s="3">
         <v>7800</v>
@@ -869,7 +869,7 @@
         <v>4700</v>
       </c>
       <c r="G14" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -887,16 +887,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>233700</v>
+        <v>232100</v>
       </c>
       <c r="E15" s="3">
-        <v>118300</v>
+        <v>117400</v>
       </c>
       <c r="F15" s="3">
-        <v>63500</v>
+        <v>63100</v>
       </c>
       <c r="G15" s="3">
-        <v>41300</v>
+        <v>41000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1873500</v>
+        <v>1860600</v>
       </c>
       <c r="E17" s="3">
-        <v>1161400</v>
+        <v>1153400</v>
       </c>
       <c r="F17" s="3">
-        <v>958000</v>
+        <v>951400</v>
       </c>
       <c r="G17" s="3">
-        <v>647100</v>
+        <v>642600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>155100</v>
+        <v>154000</v>
       </c>
       <c r="E18" s="3">
-        <v>146300</v>
+        <v>145300</v>
       </c>
       <c r="F18" s="3">
-        <v>112500</v>
+        <v>111700</v>
       </c>
       <c r="G18" s="3">
-        <v>88100</v>
+        <v>87500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>96200</v>
+        <v>95500</v>
       </c>
       <c r="E20" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>481800</v>
+        <v>482500</v>
       </c>
       <c r="E21" s="3">
         <v>285100</v>
       </c>
       <c r="F21" s="3">
-        <v>180900</v>
+        <v>180700</v>
       </c>
       <c r="G21" s="3">
-        <v>129500</v>
+        <v>129300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>58200</v>
+        <v>57800</v>
       </c>
       <c r="E22" s="3">
-        <v>46600</v>
+        <v>46200</v>
       </c>
       <c r="F22" s="3">
-        <v>29800</v>
+        <v>29600</v>
       </c>
       <c r="G22" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>193000</v>
+        <v>191700</v>
       </c>
       <c r="E23" s="3">
-        <v>121800</v>
+        <v>121000</v>
       </c>
       <c r="F23" s="3">
-        <v>88500</v>
+        <v>87900</v>
       </c>
       <c r="G23" s="3">
-        <v>75800</v>
+        <v>75300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="E24" s="3">
-        <v>33300</v>
+        <v>33100</v>
       </c>
       <c r="F24" s="3">
-        <v>28100</v>
+        <v>27900</v>
       </c>
       <c r="G24" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>132000</v>
+        <v>131100</v>
       </c>
       <c r="E26" s="3">
-        <v>88500</v>
+        <v>87900</v>
       </c>
       <c r="F26" s="3">
-        <v>60400</v>
+        <v>60000</v>
       </c>
       <c r="G26" s="3">
-        <v>55700</v>
+        <v>55300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>132000</v>
+        <v>131100</v>
       </c>
       <c r="E27" s="3">
-        <v>88500</v>
+        <v>87900</v>
       </c>
       <c r="F27" s="3">
-        <v>60400</v>
+        <v>60000</v>
       </c>
       <c r="G27" s="3">
-        <v>55700</v>
+        <v>55300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-96200</v>
+        <v>-95500</v>
       </c>
       <c r="E32" s="3">
-        <v>-22100</v>
+        <v>-21900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132000</v>
+        <v>131100</v>
       </c>
       <c r="E33" s="3">
-        <v>88500</v>
+        <v>87900</v>
       </c>
       <c r="F33" s="3">
-        <v>60400</v>
+        <v>60000</v>
       </c>
       <c r="G33" s="3">
-        <v>55700</v>
+        <v>55300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132000</v>
+        <v>131100</v>
       </c>
       <c r="E35" s="3">
-        <v>88500</v>
+        <v>87900</v>
       </c>
       <c r="F35" s="3">
-        <v>60400</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="3">
-        <v>55700</v>
+        <v>55300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>196200</v>
+        <v>194900</v>
       </c>
       <c r="E41" s="3">
-        <v>102000</v>
+        <v>101300</v>
       </c>
       <c r="F41" s="3">
-        <v>84100</v>
+        <v>83600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>863600</v>
+        <v>857600</v>
       </c>
       <c r="E43" s="3">
-        <v>279200</v>
+        <v>277300</v>
       </c>
       <c r="F43" s="3">
-        <v>204800</v>
+        <v>203400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="E45" s="3">
-        <v>40000</v>
+        <v>39700</v>
       </c>
       <c r="F45" s="3">
-        <v>31200</v>
+        <v>31000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>702900</v>
+        <v>698000</v>
       </c>
       <c r="E46" s="3">
-        <v>421200</v>
+        <v>418300</v>
       </c>
       <c r="F46" s="3">
-        <v>320100</v>
+        <v>317900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>464300</v>
+        <v>461100</v>
       </c>
       <c r="E48" s="3">
-        <v>386100</v>
+        <v>383400</v>
       </c>
       <c r="F48" s="3">
-        <v>147800</v>
+        <v>146700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3768700</v>
+        <v>3742800</v>
       </c>
       <c r="E49" s="3">
-        <v>651700</v>
+        <v>647200</v>
       </c>
       <c r="F49" s="3">
-        <v>674600</v>
+        <v>670000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>52600</v>
+        <v>52200</v>
       </c>
       <c r="E52" s="3">
-        <v>40400</v>
+        <v>40100</v>
       </c>
       <c r="F52" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4786700</v>
+        <v>4753800</v>
       </c>
       <c r="E54" s="3">
-        <v>1499400</v>
+        <v>1489100</v>
       </c>
       <c r="F54" s="3">
-        <v>1166000</v>
+        <v>1158000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>325800</v>
+        <v>323500</v>
       </c>
       <c r="E57" s="3">
-        <v>195200</v>
+        <v>193900</v>
       </c>
       <c r="F57" s="3">
-        <v>148400</v>
+        <v>147400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>118000</v>
+        <v>117200</v>
       </c>
       <c r="E58" s="3">
-        <v>54900</v>
+        <v>54500</v>
       </c>
       <c r="F58" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202700</v>
+        <v>201300</v>
       </c>
       <c r="E59" s="3">
-        <v>103800</v>
+        <v>103100</v>
       </c>
       <c r="F59" s="3">
-        <v>90800</v>
+        <v>90200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>646400</v>
+        <v>642000</v>
       </c>
       <c r="E60" s="3">
-        <v>353900</v>
+        <v>351400</v>
       </c>
       <c r="F60" s="3">
-        <v>246900</v>
+        <v>245200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2147100</v>
+        <v>2132300</v>
       </c>
       <c r="E61" s="3">
-        <v>612700</v>
+        <v>608500</v>
       </c>
       <c r="F61" s="3">
-        <v>387300</v>
+        <v>384700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>593500</v>
+        <v>589400</v>
       </c>
       <c r="E62" s="3">
-        <v>217500</v>
+        <v>216000</v>
       </c>
       <c r="F62" s="3">
-        <v>279500</v>
+        <v>277600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3361700</v>
+        <v>3338600</v>
       </c>
       <c r="E66" s="3">
-        <v>1184100</v>
+        <v>1176000</v>
       </c>
       <c r="F66" s="3">
-        <v>913700</v>
+        <v>907500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42300</v>
+        <v>42000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1425000</v>
+        <v>1415200</v>
       </c>
       <c r="E76" s="3">
-        <v>315300</v>
+        <v>313100</v>
       </c>
       <c r="F76" s="3">
-        <v>252300</v>
+        <v>250600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132000</v>
+        <v>131100</v>
       </c>
       <c r="E81" s="3">
-        <v>88500</v>
+        <v>87900</v>
       </c>
       <c r="F81" s="3">
-        <v>60400</v>
+        <v>60000</v>
       </c>
       <c r="G81" s="3">
-        <v>55700</v>
+        <v>55300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>233700</v>
+        <v>232100</v>
       </c>
       <c r="E83" s="3">
-        <v>118300</v>
+        <v>117400</v>
       </c>
       <c r="F83" s="3">
-        <v>63500</v>
+        <v>63100</v>
       </c>
       <c r="G83" s="3">
-        <v>41300</v>
+        <v>41000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>337300</v>
+        <v>335000</v>
       </c>
       <c r="E89" s="3">
-        <v>181600</v>
+        <v>180400</v>
       </c>
       <c r="F89" s="3">
-        <v>119900</v>
+        <v>119100</v>
       </c>
       <c r="G89" s="3">
-        <v>116600</v>
+        <v>115800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75900</v>
+        <v>-75400</v>
       </c>
       <c r="E91" s="3">
-        <v>-67600</v>
+        <v>-67100</v>
       </c>
       <c r="F91" s="3">
-        <v>-60900</v>
+        <v>-60500</v>
       </c>
       <c r="G91" s="3">
-        <v>-57100</v>
+        <v>-56700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2399900</v>
+        <v>-2383400</v>
       </c>
       <c r="E94" s="3">
-        <v>-132700</v>
+        <v>-131800</v>
       </c>
       <c r="F94" s="3">
-        <v>-208900</v>
+        <v>-207500</v>
       </c>
       <c r="G94" s="3">
-        <v>-137200</v>
+        <v>-136300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2168400</v>
+        <v>2153500</v>
       </c>
       <c r="E100" s="3">
-        <v>-30800</v>
+        <v>-30600</v>
       </c>
       <c r="F100" s="3">
-        <v>65000</v>
+        <v>64600</v>
       </c>
       <c r="G100" s="3">
-        <v>62300</v>
+        <v>61900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>93600</v>
+        <v>93000</v>
       </c>
       <c r="E102" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="F102" s="3">
-        <v>-25400</v>
+        <v>-25200</v>
       </c>
       <c r="G102" s="3">
-        <v>43000</v>
+        <v>42700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>TIXT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,69 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2014600</v>
+        <v>2795800</v>
       </c>
       <c r="E8" s="3">
-        <v>1298800</v>
+        <v>2015400</v>
       </c>
       <c r="F8" s="3">
-        <v>1063100</v>
+        <v>1299300</v>
       </c>
       <c r="G8" s="3">
-        <v>730100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>1063500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>730400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -732,53 +735,59 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>310200</v>
+        <v>550500</v>
       </c>
       <c r="E9" s="3">
-        <v>225600</v>
+        <v>310300</v>
       </c>
       <c r="F9" s="3">
-        <v>222000</v>
+        <v>225700</v>
       </c>
       <c r="G9" s="3">
+        <v>222100</v>
+      </c>
+      <c r="H9" s="3">
         <v>125000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1704500</v>
+        <v>2245300</v>
       </c>
       <c r="E10" s="3">
-        <v>1073200</v>
+        <v>1705100</v>
       </c>
       <c r="F10" s="3">
-        <v>841100</v>
+        <v>1073600</v>
       </c>
       <c r="G10" s="3">
-        <v>605200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>841400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>605400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,63 +869,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E14" s="3">
         <v>74800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>232100</v>
+        <v>327500</v>
       </c>
       <c r="E15" s="3">
-        <v>117400</v>
+        <v>232200</v>
       </c>
       <c r="F15" s="3">
+        <v>117500</v>
+      </c>
+      <c r="G15" s="3">
         <v>63100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>41000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,25 +943,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1860600</v>
+        <v>2560100</v>
       </c>
       <c r="E17" s="3">
-        <v>1153400</v>
+        <v>1861400</v>
       </c>
       <c r="F17" s="3">
-        <v>951400</v>
+        <v>1153900</v>
       </c>
       <c r="G17" s="3">
-        <v>642600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>951800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>642900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -944,36 +970,42 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>154000</v>
+        <v>235700</v>
       </c>
       <c r="E18" s="3">
-        <v>145300</v>
+        <v>154100</v>
       </c>
       <c r="F18" s="3">
-        <v>111700</v>
+        <v>145400</v>
       </c>
       <c r="G18" s="3">
+        <v>111800</v>
+      </c>
+      <c r="H18" s="3">
         <v>87500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,52 +1017,56 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>95500</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
+        <v>95600</v>
+      </c>
+      <c r="F20" s="3">
         <v>21900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>482500</v>
+        <v>566100</v>
       </c>
       <c r="E21" s="3">
-        <v>285100</v>
+        <v>482900</v>
       </c>
       <c r="F21" s="3">
-        <v>180700</v>
+        <v>285400</v>
       </c>
       <c r="G21" s="3">
-        <v>129300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>180900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>129400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1038,90 +1074,102 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57800</v>
+        <v>56100</v>
       </c>
       <c r="E22" s="3">
-        <v>46200</v>
+        <v>57900</v>
       </c>
       <c r="F22" s="3">
+        <v>46300</v>
+      </c>
+      <c r="G22" s="3">
         <v>29600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12900</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>191700</v>
+        <v>181000</v>
       </c>
       <c r="E23" s="3">
-        <v>121000</v>
+        <v>191800</v>
       </c>
       <c r="F23" s="3">
+        <v>121100</v>
+      </c>
+      <c r="G23" s="3">
         <v>87900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>75300</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60600</v>
+        <v>81600</v>
       </c>
       <c r="E24" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F24" s="3">
         <v>33100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E26" s="3">
         <v>131100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>87900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>55300</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E27" s="3">
         <v>131100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>87900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>60000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>55300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-95500</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-21900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E33" s="3">
         <v>131100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>87900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>60000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>55300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E35" s="3">
         <v>131100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>87900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>60000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>55300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,23 +1560,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>194900</v>
+        <v>146500</v>
       </c>
       <c r="E41" s="3">
+        <v>195000</v>
+      </c>
+      <c r="F41" s="3">
         <v>101300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>83600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>857600</v>
+        <v>602700</v>
       </c>
       <c r="E43" s="3">
-        <v>277300</v>
+        <v>858000</v>
       </c>
       <c r="F43" s="3">
-        <v>203400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>277400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>203500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,24 +1677,27 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31800</v>
+        <v>49700</v>
       </c>
       <c r="E45" s="3">
-        <v>39700</v>
+        <v>31900</v>
       </c>
       <c r="F45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="G45" s="3">
         <v>31000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>698000</v>
+        <v>799000</v>
       </c>
       <c r="E46" s="3">
-        <v>418300</v>
+        <v>698300</v>
       </c>
       <c r="F46" s="3">
-        <v>317900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>418500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>318100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,23 +1767,26 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>461100</v>
+        <v>516100</v>
       </c>
       <c r="E48" s="3">
-        <v>383400</v>
+        <v>461300</v>
       </c>
       <c r="F48" s="3">
-        <v>146700</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>383600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>146800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,23 +1797,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3742800</v>
+        <v>3234200</v>
       </c>
       <c r="E49" s="3">
-        <v>647200</v>
+        <v>3744300</v>
       </c>
       <c r="F49" s="3">
-        <v>670000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>647500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>670300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,24 +1887,27 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E52" s="3">
         <v>52200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>40100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4753800</v>
+        <v>4620600</v>
       </c>
       <c r="E54" s="3">
-        <v>1489100</v>
+        <v>4755700</v>
       </c>
       <c r="F54" s="3">
-        <v>1158000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1489700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1158500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,23 +2008,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>323500</v>
+        <v>416700</v>
       </c>
       <c r="E57" s="3">
+        <v>323700</v>
+      </c>
+      <c r="F57" s="3">
         <v>193900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>147400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,24 +2035,27 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E58" s="3">
         <v>117200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>54500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,24 +2065,27 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>193700</v>
+      </c>
+      <c r="E59" s="3">
         <v>201300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>103100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>90200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>642000</v>
+        <v>1028400</v>
       </c>
       <c r="E60" s="3">
-        <v>351400</v>
+        <v>642200</v>
       </c>
       <c r="F60" s="3">
-        <v>245200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>351600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>245300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,23 +2125,26 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2132300</v>
+        <v>1044900</v>
       </c>
       <c r="E61" s="3">
-        <v>608500</v>
+        <v>2133200</v>
       </c>
       <c r="F61" s="3">
-        <v>384700</v>
+        <v>608700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>384800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2013,23 +2155,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>589400</v>
+        <v>438400</v>
       </c>
       <c r="E62" s="3">
-        <v>216000</v>
+        <v>589600</v>
       </c>
       <c r="F62" s="3">
-        <v>277600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>216100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>277700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3338600</v>
+        <v>2511600</v>
       </c>
       <c r="E66" s="3">
-        <v>1176000</v>
+        <v>3339900</v>
       </c>
       <c r="F66" s="3">
-        <v>907500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>1176400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>907800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,17 +2439,20 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>136400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>42100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1415200</v>
+        <v>2109000</v>
       </c>
       <c r="E76" s="3">
-        <v>313100</v>
+        <v>1415700</v>
       </c>
       <c r="F76" s="3">
-        <v>250600</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>313200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>250700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E81" s="3">
         <v>131100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>87900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>60000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>55300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>232100</v>
+        <v>327500</v>
       </c>
       <c r="E83" s="3">
-        <v>117400</v>
+        <v>232200</v>
       </c>
       <c r="F83" s="3">
+        <v>117500</v>
+      </c>
+      <c r="G83" s="3">
         <v>63100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>335000</v>
+        <v>359400</v>
       </c>
       <c r="E89" s="3">
+        <v>335100</v>
+      </c>
+      <c r="F89" s="3">
         <v>180400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>119100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>115800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-126200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-75400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-67100</v>
-      </c>
       <c r="F91" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-60500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-56700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,26 +3012,29 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2383400</v>
+        <v>-140200</v>
       </c>
       <c r="E94" s="3">
-        <v>-131800</v>
+        <v>-2384300</v>
       </c>
       <c r="F94" s="3">
-        <v>-207500</v>
+        <v>-131900</v>
       </c>
       <c r="G94" s="3">
-        <v>-136300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-207600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-136400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2153500</v>
+        <v>-262500</v>
       </c>
       <c r="E100" s="3">
+        <v>2154300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-30600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>64600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>61900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E102" s="3">
         <v>93000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>42700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2795800</v>
+        <v>2861900</v>
       </c>
       <c r="E8" s="3">
-        <v>2015400</v>
+        <v>2063000</v>
       </c>
       <c r="F8" s="3">
-        <v>1299300</v>
+        <v>1330000</v>
       </c>
       <c r="G8" s="3">
-        <v>1063500</v>
+        <v>1088700</v>
       </c>
       <c r="H8" s="3">
-        <v>730400</v>
+        <v>747700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>550500</v>
+        <v>563500</v>
       </c>
       <c r="E9" s="3">
-        <v>310300</v>
+        <v>317600</v>
       </c>
       <c r="F9" s="3">
-        <v>225700</v>
+        <v>231000</v>
       </c>
       <c r="G9" s="3">
-        <v>222100</v>
+        <v>227400</v>
       </c>
       <c r="H9" s="3">
-        <v>125000</v>
+        <v>128000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2245300</v>
+        <v>2298400</v>
       </c>
       <c r="E10" s="3">
-        <v>1705100</v>
+        <v>1745400</v>
       </c>
       <c r="F10" s="3">
-        <v>1073600</v>
+        <v>1099000</v>
       </c>
       <c r="G10" s="3">
-        <v>841400</v>
+        <v>861300</v>
       </c>
       <c r="H10" s="3">
-        <v>605400</v>
+        <v>619700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,19 +879,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="E14" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="F14" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="G14" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H14" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -909,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>327500</v>
+        <v>335200</v>
       </c>
       <c r="E15" s="3">
-        <v>232200</v>
+        <v>237700</v>
       </c>
       <c r="F15" s="3">
-        <v>117500</v>
+        <v>120300</v>
       </c>
       <c r="G15" s="3">
-        <v>63100</v>
+        <v>64600</v>
       </c>
       <c r="H15" s="3">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2560100</v>
+        <v>2620500</v>
       </c>
       <c r="E17" s="3">
-        <v>1861400</v>
+        <v>1905300</v>
       </c>
       <c r="F17" s="3">
-        <v>1153900</v>
+        <v>1181100</v>
       </c>
       <c r="G17" s="3">
-        <v>951800</v>
+        <v>974300</v>
       </c>
       <c r="H17" s="3">
-        <v>642900</v>
+        <v>658100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>235700</v>
+        <v>241300</v>
       </c>
       <c r="E18" s="3">
-        <v>154100</v>
+        <v>157700</v>
       </c>
       <c r="F18" s="3">
-        <v>145400</v>
+        <v>148800</v>
       </c>
       <c r="G18" s="3">
-        <v>111800</v>
+        <v>114400</v>
       </c>
       <c r="H18" s="3">
-        <v>87500</v>
+        <v>89600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1027,16 +1027,16 @@
         <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>95600</v>
+        <v>97800</v>
       </c>
       <c r="F20" s="3">
-        <v>21900</v>
+        <v>22400</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H20" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>566100</v>
+        <v>576500</v>
       </c>
       <c r="E21" s="3">
-        <v>482900</v>
+        <v>492300</v>
       </c>
       <c r="F21" s="3">
-        <v>285400</v>
+        <v>291100</v>
       </c>
       <c r="G21" s="3">
-        <v>180900</v>
+        <v>184600</v>
       </c>
       <c r="H21" s="3">
-        <v>129400</v>
+        <v>132100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1084,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56100</v>
+        <v>57400</v>
       </c>
       <c r="E22" s="3">
-        <v>57900</v>
+        <v>59200</v>
       </c>
       <c r="F22" s="3">
-        <v>46300</v>
+        <v>47300</v>
       </c>
       <c r="G22" s="3">
-        <v>29600</v>
+        <v>30300</v>
       </c>
       <c r="H22" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>181000</v>
+        <v>185200</v>
       </c>
       <c r="E23" s="3">
-        <v>191800</v>
+        <v>196300</v>
       </c>
       <c r="F23" s="3">
-        <v>121100</v>
+        <v>123900</v>
       </c>
       <c r="G23" s="3">
-        <v>87900</v>
+        <v>90000</v>
       </c>
       <c r="H23" s="3">
-        <v>75300</v>
+        <v>77100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81600</v>
+        <v>83500</v>
       </c>
       <c r="E24" s="3">
-        <v>60700</v>
+        <v>62100</v>
       </c>
       <c r="F24" s="3">
-        <v>33100</v>
+        <v>33900</v>
       </c>
       <c r="G24" s="3">
-        <v>27900</v>
+        <v>28600</v>
       </c>
       <c r="H24" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>99400</v>
+        <v>101700</v>
       </c>
       <c r="E26" s="3">
-        <v>131100</v>
+        <v>134200</v>
       </c>
       <c r="F26" s="3">
-        <v>87900</v>
+        <v>90000</v>
       </c>
       <c r="G26" s="3">
-        <v>60000</v>
+        <v>61400</v>
       </c>
       <c r="H26" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>99400</v>
+        <v>101700</v>
       </c>
       <c r="E27" s="3">
-        <v>131100</v>
+        <v>134200</v>
       </c>
       <c r="F27" s="3">
-        <v>87900</v>
+        <v>90000</v>
       </c>
       <c r="G27" s="3">
-        <v>60000</v>
+        <v>61400</v>
       </c>
       <c r="H27" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1387,16 +1387,16 @@
         <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-95600</v>
+        <v>-97800</v>
       </c>
       <c r="F32" s="3">
-        <v>-21900</v>
+        <v>-22400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="H32" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>99400</v>
+        <v>101700</v>
       </c>
       <c r="E33" s="3">
-        <v>131100</v>
+        <v>134200</v>
       </c>
       <c r="F33" s="3">
-        <v>87900</v>
+        <v>90000</v>
       </c>
       <c r="G33" s="3">
-        <v>60000</v>
+        <v>61400</v>
       </c>
       <c r="H33" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>99400</v>
+        <v>101700</v>
       </c>
       <c r="E35" s="3">
-        <v>131100</v>
+        <v>134200</v>
       </c>
       <c r="F35" s="3">
-        <v>87900</v>
+        <v>90000</v>
       </c>
       <c r="G35" s="3">
-        <v>60000</v>
+        <v>61400</v>
       </c>
       <c r="H35" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>146500</v>
+        <v>150000</v>
       </c>
       <c r="E41" s="3">
-        <v>195000</v>
+        <v>199600</v>
       </c>
       <c r="F41" s="3">
-        <v>101300</v>
+        <v>103700</v>
       </c>
       <c r="G41" s="3">
-        <v>83600</v>
+        <v>85600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>602700</v>
+        <v>617000</v>
       </c>
       <c r="E43" s="3">
-        <v>858000</v>
+        <v>878300</v>
       </c>
       <c r="F43" s="3">
-        <v>277400</v>
+        <v>284000</v>
       </c>
       <c r="G43" s="3">
-        <v>203500</v>
+        <v>208300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49700</v>
+        <v>50900</v>
       </c>
       <c r="E45" s="3">
-        <v>31900</v>
+        <v>32600</v>
       </c>
       <c r="F45" s="3">
-        <v>39800</v>
+        <v>40700</v>
       </c>
       <c r="G45" s="3">
-        <v>31000</v>
+        <v>31700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>799000</v>
+        <v>817900</v>
       </c>
       <c r="E46" s="3">
-        <v>698300</v>
+        <v>714800</v>
       </c>
       <c r="F46" s="3">
-        <v>418500</v>
+        <v>428400</v>
       </c>
       <c r="G46" s="3">
-        <v>318100</v>
+        <v>325600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>516100</v>
+        <v>528300</v>
       </c>
       <c r="E48" s="3">
-        <v>461300</v>
+        <v>472200</v>
       </c>
       <c r="F48" s="3">
-        <v>383600</v>
+        <v>392600</v>
       </c>
       <c r="G48" s="3">
-        <v>146800</v>
+        <v>150300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3234200</v>
+        <v>3310600</v>
       </c>
       <c r="E49" s="3">
-        <v>3744300</v>
+        <v>3832700</v>
       </c>
       <c r="F49" s="3">
-        <v>647500</v>
+        <v>662800</v>
       </c>
       <c r="G49" s="3">
-        <v>670300</v>
+        <v>686100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>71400</v>
+        <v>73000</v>
       </c>
       <c r="E52" s="3">
-        <v>52200</v>
+        <v>53500</v>
       </c>
       <c r="F52" s="3">
-        <v>40100</v>
+        <v>41100</v>
       </c>
       <c r="G52" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4620600</v>
+        <v>4729800</v>
       </c>
       <c r="E54" s="3">
-        <v>4755700</v>
+        <v>4868000</v>
       </c>
       <c r="F54" s="3">
-        <v>1489700</v>
+        <v>1524800</v>
       </c>
       <c r="G54" s="3">
-        <v>1158500</v>
+        <v>1185800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>416700</v>
+        <v>426500</v>
       </c>
       <c r="E57" s="3">
-        <v>323700</v>
+        <v>331300</v>
       </c>
       <c r="F57" s="3">
-        <v>193900</v>
+        <v>198500</v>
       </c>
       <c r="G57" s="3">
-        <v>147400</v>
+        <v>150900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>418000</v>
+        <v>427800</v>
       </c>
       <c r="E58" s="3">
-        <v>117200</v>
+        <v>120000</v>
       </c>
       <c r="F58" s="3">
-        <v>54500</v>
+        <v>55800</v>
       </c>
       <c r="G58" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>193700</v>
+        <v>198300</v>
       </c>
       <c r="E59" s="3">
-        <v>201300</v>
+        <v>206100</v>
       </c>
       <c r="F59" s="3">
-        <v>103100</v>
+        <v>105500</v>
       </c>
       <c r="G59" s="3">
-        <v>90200</v>
+        <v>92400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1028400</v>
+        <v>1052700</v>
       </c>
       <c r="E60" s="3">
-        <v>642200</v>
+        <v>657400</v>
       </c>
       <c r="F60" s="3">
-        <v>351600</v>
+        <v>359900</v>
       </c>
       <c r="G60" s="3">
-        <v>245300</v>
+        <v>251100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1044900</v>
+        <v>1069600</v>
       </c>
       <c r="E61" s="3">
-        <v>2133200</v>
+        <v>2183600</v>
       </c>
       <c r="F61" s="3">
-        <v>608700</v>
+        <v>623100</v>
       </c>
       <c r="G61" s="3">
-        <v>384800</v>
+        <v>393900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>438400</v>
+        <v>448700</v>
       </c>
       <c r="E62" s="3">
-        <v>589600</v>
+        <v>603500</v>
       </c>
       <c r="F62" s="3">
-        <v>216100</v>
+        <v>221200</v>
       </c>
       <c r="G62" s="3">
-        <v>277700</v>
+        <v>284200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2511600</v>
+        <v>2571000</v>
       </c>
       <c r="E66" s="3">
-        <v>3339900</v>
+        <v>3418800</v>
       </c>
       <c r="F66" s="3">
-        <v>1176400</v>
+        <v>1204200</v>
       </c>
       <c r="G66" s="3">
-        <v>907800</v>
+        <v>929300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,10 +2449,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>136400</v>
+        <v>139600</v>
       </c>
       <c r="E72" s="3">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2109000</v>
+        <v>2158800</v>
       </c>
       <c r="E76" s="3">
-        <v>1415700</v>
+        <v>1449200</v>
       </c>
       <c r="F76" s="3">
-        <v>313200</v>
+        <v>320600</v>
       </c>
       <c r="G76" s="3">
-        <v>250700</v>
+        <v>256600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>99400</v>
+        <v>101700</v>
       </c>
       <c r="E81" s="3">
-        <v>131100</v>
+        <v>134200</v>
       </c>
       <c r="F81" s="3">
-        <v>87900</v>
+        <v>90000</v>
       </c>
       <c r="G81" s="3">
-        <v>60000</v>
+        <v>61400</v>
       </c>
       <c r="H81" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>327500</v>
+        <v>335200</v>
       </c>
       <c r="E83" s="3">
-        <v>232200</v>
+        <v>237700</v>
       </c>
       <c r="F83" s="3">
-        <v>117500</v>
+        <v>120300</v>
       </c>
       <c r="G83" s="3">
-        <v>63100</v>
+        <v>64600</v>
       </c>
       <c r="H83" s="3">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>359400</v>
+        <v>367800</v>
       </c>
       <c r="E89" s="3">
-        <v>335100</v>
+        <v>343100</v>
       </c>
       <c r="F89" s="3">
-        <v>180400</v>
+        <v>184700</v>
       </c>
       <c r="G89" s="3">
-        <v>119100</v>
+        <v>122000</v>
       </c>
       <c r="H89" s="3">
-        <v>115800</v>
+        <v>118600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-126200</v>
+        <v>-129100</v>
       </c>
       <c r="E91" s="3">
-        <v>-75400</v>
+        <v>-77200</v>
       </c>
       <c r="F91" s="3">
-        <v>-67200</v>
+        <v>-68700</v>
       </c>
       <c r="G91" s="3">
-        <v>-60500</v>
+        <v>-62000</v>
       </c>
       <c r="H91" s="3">
-        <v>-56700</v>
+        <v>-58000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-140200</v>
+        <v>-143500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2384300</v>
+        <v>-2440700</v>
       </c>
       <c r="F94" s="3">
-        <v>-131900</v>
+        <v>-135000</v>
       </c>
       <c r="G94" s="3">
-        <v>-207600</v>
+        <v>-212500</v>
       </c>
       <c r="H94" s="3">
-        <v>-136400</v>
+        <v>-139600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-262500</v>
+        <v>-268700</v>
       </c>
       <c r="E100" s="3">
-        <v>2154300</v>
+        <v>2205200</v>
       </c>
       <c r="F100" s="3">
-        <v>-30600</v>
+        <v>-31300</v>
       </c>
       <c r="G100" s="3">
-        <v>64600</v>
+        <v>66100</v>
       </c>
       <c r="H100" s="3">
-        <v>61900</v>
+        <v>63400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
@@ -3246,19 +3246,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-48400</v>
+        <v>-49600</v>
       </c>
       <c r="E102" s="3">
-        <v>93000</v>
+        <v>95200</v>
       </c>
       <c r="F102" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="G102" s="3">
-        <v>-25200</v>
+        <v>-25800</v>
       </c>
       <c r="H102" s="3">
-        <v>42700</v>
+        <v>43700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2861900</v>
+        <v>2835500</v>
       </c>
       <c r="E8" s="3">
-        <v>2063000</v>
+        <v>2044100</v>
       </c>
       <c r="F8" s="3">
-        <v>1330000</v>
+        <v>1317700</v>
       </c>
       <c r="G8" s="3">
-        <v>1088700</v>
+        <v>1078600</v>
       </c>
       <c r="H8" s="3">
-        <v>747700</v>
+        <v>740800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>563500</v>
+        <v>558300</v>
       </c>
       <c r="E9" s="3">
-        <v>317600</v>
+        <v>314700</v>
       </c>
       <c r="F9" s="3">
-        <v>231000</v>
+        <v>228900</v>
       </c>
       <c r="G9" s="3">
-        <v>227400</v>
+        <v>225300</v>
       </c>
       <c r="H9" s="3">
-        <v>128000</v>
+        <v>126800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2298400</v>
+        <v>2277200</v>
       </c>
       <c r="E10" s="3">
-        <v>1745400</v>
+        <v>1729400</v>
       </c>
       <c r="F10" s="3">
-        <v>1099000</v>
+        <v>1088800</v>
       </c>
       <c r="G10" s="3">
-        <v>861300</v>
+        <v>853400</v>
       </c>
       <c r="H10" s="3">
-        <v>619700</v>
+        <v>614000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,19 +879,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="E14" s="3">
-        <v>76600</v>
+        <v>75900</v>
       </c>
       <c r="F14" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3">
         <v>4800</v>
       </c>
       <c r="H14" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -909,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>335200</v>
+        <v>332100</v>
       </c>
       <c r="E15" s="3">
-        <v>237700</v>
+        <v>235500</v>
       </c>
       <c r="F15" s="3">
-        <v>120300</v>
+        <v>119200</v>
       </c>
       <c r="G15" s="3">
-        <v>64600</v>
+        <v>64000</v>
       </c>
       <c r="H15" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2620500</v>
+        <v>2596400</v>
       </c>
       <c r="E17" s="3">
-        <v>1905300</v>
+        <v>1887800</v>
       </c>
       <c r="F17" s="3">
-        <v>1181100</v>
+        <v>1170300</v>
       </c>
       <c r="G17" s="3">
-        <v>974300</v>
+        <v>965300</v>
       </c>
       <c r="H17" s="3">
-        <v>658100</v>
+        <v>652000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>241300</v>
+        <v>239100</v>
       </c>
       <c r="E18" s="3">
-        <v>157700</v>
+        <v>156300</v>
       </c>
       <c r="F18" s="3">
-        <v>148800</v>
+        <v>147500</v>
       </c>
       <c r="G18" s="3">
-        <v>114400</v>
+        <v>113300</v>
       </c>
       <c r="H18" s="3">
-        <v>89600</v>
+        <v>88800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1027,16 +1027,16 @@
         <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>97800</v>
+        <v>96900</v>
       </c>
       <c r="F20" s="3">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="G20" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>576500</v>
+        <v>573600</v>
       </c>
       <c r="E21" s="3">
-        <v>492300</v>
+        <v>489400</v>
       </c>
       <c r="F21" s="3">
-        <v>291100</v>
+        <v>289200</v>
       </c>
       <c r="G21" s="3">
-        <v>184600</v>
+        <v>183300</v>
       </c>
       <c r="H21" s="3">
-        <v>132100</v>
+        <v>131200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1084,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="E22" s="3">
-        <v>59200</v>
+        <v>58700</v>
       </c>
       <c r="F22" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="G22" s="3">
-        <v>30300</v>
+        <v>30000</v>
       </c>
       <c r="H22" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>185200</v>
+        <v>183500</v>
       </c>
       <c r="E23" s="3">
-        <v>196300</v>
+        <v>194500</v>
       </c>
       <c r="F23" s="3">
-        <v>123900</v>
+        <v>122800</v>
       </c>
       <c r="G23" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="H23" s="3">
-        <v>77100</v>
+        <v>76400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>83500</v>
+        <v>82700</v>
       </c>
       <c r="E24" s="3">
-        <v>62100</v>
+        <v>61500</v>
       </c>
       <c r="F24" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="G24" s="3">
-        <v>28600</v>
+        <v>28300</v>
       </c>
       <c r="H24" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="E26" s="3">
-        <v>134200</v>
+        <v>133000</v>
       </c>
       <c r="F26" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="G26" s="3">
-        <v>61400</v>
+        <v>60900</v>
       </c>
       <c r="H26" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="E27" s="3">
-        <v>134200</v>
+        <v>133000</v>
       </c>
       <c r="F27" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="G27" s="3">
-        <v>61400</v>
+        <v>60900</v>
       </c>
       <c r="H27" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1387,16 +1387,16 @@
         <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-97800</v>
+        <v>-96900</v>
       </c>
       <c r="F32" s="3">
-        <v>-22400</v>
+        <v>-22200</v>
       </c>
       <c r="G32" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="E33" s="3">
-        <v>134200</v>
+        <v>133000</v>
       </c>
       <c r="F33" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="G33" s="3">
-        <v>61400</v>
+        <v>60900</v>
       </c>
       <c r="H33" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="E35" s="3">
-        <v>134200</v>
+        <v>133000</v>
       </c>
       <c r="F35" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="G35" s="3">
-        <v>61400</v>
+        <v>60900</v>
       </c>
       <c r="H35" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>150000</v>
+        <v>148600</v>
       </c>
       <c r="E41" s="3">
-        <v>199600</v>
+        <v>197700</v>
       </c>
       <c r="F41" s="3">
-        <v>103700</v>
+        <v>102700</v>
       </c>
       <c r="G41" s="3">
-        <v>85600</v>
+        <v>84800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>617000</v>
+        <v>611300</v>
       </c>
       <c r="E43" s="3">
-        <v>878300</v>
+        <v>870200</v>
       </c>
       <c r="F43" s="3">
-        <v>284000</v>
+        <v>281400</v>
       </c>
       <c r="G43" s="3">
-        <v>208300</v>
+        <v>206400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50900</v>
+        <v>50400</v>
       </c>
       <c r="E45" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="F45" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="G45" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>817900</v>
+        <v>810300</v>
       </c>
       <c r="E46" s="3">
-        <v>714800</v>
+        <v>708200</v>
       </c>
       <c r="F46" s="3">
-        <v>428400</v>
+        <v>424400</v>
       </c>
       <c r="G46" s="3">
-        <v>325600</v>
+        <v>322600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>528300</v>
+        <v>523400</v>
       </c>
       <c r="E48" s="3">
-        <v>472200</v>
+        <v>467800</v>
       </c>
       <c r="F48" s="3">
-        <v>392600</v>
+        <v>389000</v>
       </c>
       <c r="G48" s="3">
-        <v>150300</v>
+        <v>148900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3310600</v>
+        <v>3280100</v>
       </c>
       <c r="E49" s="3">
-        <v>3832700</v>
+        <v>3797500</v>
       </c>
       <c r="F49" s="3">
-        <v>662800</v>
+        <v>656700</v>
       </c>
       <c r="G49" s="3">
-        <v>686100</v>
+        <v>679800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73000</v>
+        <v>72400</v>
       </c>
       <c r="E52" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="F52" s="3">
-        <v>41100</v>
+        <v>40700</v>
       </c>
       <c r="G52" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4729800</v>
+        <v>4686200</v>
       </c>
       <c r="E54" s="3">
-        <v>4868000</v>
+        <v>4823200</v>
       </c>
       <c r="F54" s="3">
-        <v>1524800</v>
+        <v>1510800</v>
       </c>
       <c r="G54" s="3">
-        <v>1185800</v>
+        <v>1174900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>426500</v>
+        <v>422600</v>
       </c>
       <c r="E57" s="3">
-        <v>331300</v>
+        <v>328300</v>
       </c>
       <c r="F57" s="3">
-        <v>198500</v>
+        <v>196700</v>
       </c>
       <c r="G57" s="3">
-        <v>150900</v>
+        <v>149500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>427800</v>
+        <v>423900</v>
       </c>
       <c r="E58" s="3">
-        <v>120000</v>
+        <v>118900</v>
       </c>
       <c r="F58" s="3">
-        <v>55800</v>
+        <v>55300</v>
       </c>
       <c r="G58" s="3">
         <v>7800</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>198300</v>
+        <v>196400</v>
       </c>
       <c r="E59" s="3">
-        <v>206100</v>
+        <v>204200</v>
       </c>
       <c r="F59" s="3">
-        <v>105500</v>
+        <v>104600</v>
       </c>
       <c r="G59" s="3">
-        <v>92400</v>
+        <v>91500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1052700</v>
+        <v>1043000</v>
       </c>
       <c r="E60" s="3">
-        <v>657400</v>
+        <v>651400</v>
       </c>
       <c r="F60" s="3">
-        <v>359900</v>
+        <v>356600</v>
       </c>
       <c r="G60" s="3">
-        <v>251100</v>
+        <v>248800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1069600</v>
+        <v>1059800</v>
       </c>
       <c r="E61" s="3">
-        <v>2183600</v>
+        <v>2163500</v>
       </c>
       <c r="F61" s="3">
-        <v>623100</v>
+        <v>617400</v>
       </c>
       <c r="G61" s="3">
-        <v>393900</v>
+        <v>390300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>448700</v>
+        <v>444600</v>
       </c>
       <c r="E62" s="3">
-        <v>603500</v>
+        <v>598000</v>
       </c>
       <c r="F62" s="3">
-        <v>221200</v>
+        <v>219200</v>
       </c>
       <c r="G62" s="3">
-        <v>284200</v>
+        <v>281600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2571000</v>
+        <v>2547300</v>
       </c>
       <c r="E66" s="3">
-        <v>3418800</v>
+        <v>3387400</v>
       </c>
       <c r="F66" s="3">
-        <v>1204200</v>
+        <v>1193100</v>
       </c>
       <c r="G66" s="3">
-        <v>929300</v>
+        <v>920700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,10 +2449,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>139600</v>
+        <v>138300</v>
       </c>
       <c r="E72" s="3">
-        <v>43000</v>
+        <v>42600</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2158800</v>
+        <v>2138900</v>
       </c>
       <c r="E76" s="3">
-        <v>1449200</v>
+        <v>1435900</v>
       </c>
       <c r="F76" s="3">
-        <v>320600</v>
+        <v>317700</v>
       </c>
       <c r="G76" s="3">
-        <v>256600</v>
+        <v>254200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="E81" s="3">
-        <v>134200</v>
+        <v>133000</v>
       </c>
       <c r="F81" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="G81" s="3">
-        <v>61400</v>
+        <v>60900</v>
       </c>
       <c r="H81" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>335200</v>
+        <v>332100</v>
       </c>
       <c r="E83" s="3">
-        <v>237700</v>
+        <v>235500</v>
       </c>
       <c r="F83" s="3">
-        <v>120300</v>
+        <v>119200</v>
       </c>
       <c r="G83" s="3">
-        <v>64600</v>
+        <v>64000</v>
       </c>
       <c r="H83" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>367800</v>
+        <v>364500</v>
       </c>
       <c r="E89" s="3">
-        <v>343100</v>
+        <v>339900</v>
       </c>
       <c r="F89" s="3">
-        <v>184700</v>
+        <v>183000</v>
       </c>
       <c r="G89" s="3">
-        <v>122000</v>
+        <v>120800</v>
       </c>
       <c r="H89" s="3">
-        <v>118600</v>
+        <v>117500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-129100</v>
+        <v>-127900</v>
       </c>
       <c r="E91" s="3">
-        <v>-77200</v>
+        <v>-76500</v>
       </c>
       <c r="F91" s="3">
-        <v>-68700</v>
+        <v>-68100</v>
       </c>
       <c r="G91" s="3">
-        <v>-62000</v>
+        <v>-61400</v>
       </c>
       <c r="H91" s="3">
-        <v>-58000</v>
+        <v>-57500</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-143500</v>
+        <v>-142200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2440700</v>
+        <v>-2418200</v>
       </c>
       <c r="F94" s="3">
-        <v>-135000</v>
+        <v>-133800</v>
       </c>
       <c r="G94" s="3">
-        <v>-212500</v>
+        <v>-210500</v>
       </c>
       <c r="H94" s="3">
-        <v>-139600</v>
+        <v>-138300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-268700</v>
+        <v>-266200</v>
       </c>
       <c r="E100" s="3">
-        <v>2205200</v>
+        <v>2184900</v>
       </c>
       <c r="F100" s="3">
-        <v>-31300</v>
+        <v>-31000</v>
       </c>
       <c r="G100" s="3">
-        <v>66100</v>
+        <v>65500</v>
       </c>
       <c r="H100" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>-5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
@@ -3246,19 +3246,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-49600</v>
+        <v>-49100</v>
       </c>
       <c r="E102" s="3">
-        <v>95200</v>
+        <v>94300</v>
       </c>
       <c r="F102" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="G102" s="3">
-        <v>-25800</v>
+        <v>-25600</v>
       </c>
       <c r="H102" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2835500</v>
+        <v>2922000</v>
       </c>
       <c r="E8" s="3">
-        <v>2044100</v>
+        <v>2106400</v>
       </c>
       <c r="F8" s="3">
-        <v>1317700</v>
+        <v>1357900</v>
       </c>
       <c r="G8" s="3">
-        <v>1078600</v>
+        <v>1111500</v>
       </c>
       <c r="H8" s="3">
-        <v>740800</v>
+        <v>763400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>558300</v>
+        <v>575300</v>
       </c>
       <c r="E9" s="3">
-        <v>314700</v>
+        <v>324300</v>
       </c>
       <c r="F9" s="3">
-        <v>228900</v>
+        <v>235900</v>
       </c>
       <c r="G9" s="3">
-        <v>225300</v>
+        <v>232100</v>
       </c>
       <c r="H9" s="3">
-        <v>126800</v>
+        <v>130600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2277200</v>
+        <v>2346600</v>
       </c>
       <c r="E10" s="3">
-        <v>1729400</v>
+        <v>1782100</v>
       </c>
       <c r="F10" s="3">
-        <v>1088800</v>
+        <v>1122000</v>
       </c>
       <c r="G10" s="3">
-        <v>853400</v>
+        <v>879400</v>
       </c>
       <c r="H10" s="3">
-        <v>614000</v>
+        <v>632700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,19 +879,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="E14" s="3">
-        <v>75900</v>
+        <v>78200</v>
       </c>
       <c r="F14" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="G14" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="H14" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -909,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>332100</v>
+        <v>342300</v>
       </c>
       <c r="E15" s="3">
-        <v>235500</v>
+        <v>242700</v>
       </c>
       <c r="F15" s="3">
-        <v>119200</v>
+        <v>122800</v>
       </c>
       <c r="G15" s="3">
-        <v>64000</v>
+        <v>65900</v>
       </c>
       <c r="H15" s="3">
-        <v>41600</v>
+        <v>42900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2596400</v>
+        <v>2675600</v>
       </c>
       <c r="E17" s="3">
-        <v>1887800</v>
+        <v>1945400</v>
       </c>
       <c r="F17" s="3">
-        <v>1170300</v>
+        <v>1205900</v>
       </c>
       <c r="G17" s="3">
-        <v>965300</v>
+        <v>994700</v>
       </c>
       <c r="H17" s="3">
-        <v>652000</v>
+        <v>671900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>239100</v>
+        <v>246400</v>
       </c>
       <c r="E18" s="3">
-        <v>156300</v>
+        <v>161000</v>
       </c>
       <c r="F18" s="3">
-        <v>147500</v>
+        <v>152000</v>
       </c>
       <c r="G18" s="3">
-        <v>113300</v>
+        <v>116800</v>
       </c>
       <c r="H18" s="3">
-        <v>88800</v>
+        <v>91500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1027,16 +1027,16 @@
         <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>96900</v>
+        <v>99900</v>
       </c>
       <c r="F20" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H20" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>573600</v>
+        <v>595300</v>
       </c>
       <c r="E21" s="3">
-        <v>489400</v>
+        <v>507300</v>
       </c>
       <c r="F21" s="3">
-        <v>289200</v>
+        <v>299600</v>
       </c>
       <c r="G21" s="3">
-        <v>183300</v>
+        <v>189700</v>
       </c>
       <c r="H21" s="3">
-        <v>131200</v>
+        <v>135700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1084,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56900</v>
+        <v>58600</v>
       </c>
       <c r="E22" s="3">
-        <v>58700</v>
+        <v>60500</v>
       </c>
       <c r="F22" s="3">
-        <v>46900</v>
+        <v>48300</v>
       </c>
       <c r="G22" s="3">
-        <v>30000</v>
+        <v>30900</v>
       </c>
       <c r="H22" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>183500</v>
+        <v>189100</v>
       </c>
       <c r="E23" s="3">
-        <v>194500</v>
+        <v>200400</v>
       </c>
       <c r="F23" s="3">
-        <v>122800</v>
+        <v>126500</v>
       </c>
       <c r="G23" s="3">
-        <v>89200</v>
+        <v>91900</v>
       </c>
       <c r="H23" s="3">
-        <v>76400</v>
+        <v>78700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>82700</v>
+        <v>85200</v>
       </c>
       <c r="E24" s="3">
-        <v>61500</v>
+        <v>63400</v>
       </c>
       <c r="F24" s="3">
-        <v>33600</v>
+        <v>34600</v>
       </c>
       <c r="G24" s="3">
-        <v>28300</v>
+        <v>29200</v>
       </c>
       <c r="H24" s="3">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100800</v>
+        <v>103900</v>
       </c>
       <c r="E26" s="3">
-        <v>133000</v>
+        <v>137000</v>
       </c>
       <c r="F26" s="3">
-        <v>89200</v>
+        <v>91900</v>
       </c>
       <c r="G26" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="H26" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100800</v>
+        <v>103900</v>
       </c>
       <c r="E27" s="3">
-        <v>133000</v>
+        <v>137000</v>
       </c>
       <c r="F27" s="3">
-        <v>89200</v>
+        <v>91900</v>
       </c>
       <c r="G27" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="H27" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1387,16 +1387,16 @@
         <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-96900</v>
+        <v>-99900</v>
       </c>
       <c r="F32" s="3">
-        <v>-22200</v>
+        <v>-22900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="H32" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100800</v>
+        <v>103900</v>
       </c>
       <c r="E33" s="3">
-        <v>133000</v>
+        <v>137000</v>
       </c>
       <c r="F33" s="3">
-        <v>89200</v>
+        <v>91900</v>
       </c>
       <c r="G33" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="H33" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100800</v>
+        <v>103900</v>
       </c>
       <c r="E35" s="3">
-        <v>133000</v>
+        <v>137000</v>
       </c>
       <c r="F35" s="3">
-        <v>89200</v>
+        <v>91900</v>
       </c>
       <c r="G35" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="H35" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>148600</v>
+        <v>153200</v>
       </c>
       <c r="E41" s="3">
-        <v>197700</v>
+        <v>203800</v>
       </c>
       <c r="F41" s="3">
-        <v>102700</v>
+        <v>105900</v>
       </c>
       <c r="G41" s="3">
-        <v>84800</v>
+        <v>87400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>611300</v>
+        <v>629900</v>
       </c>
       <c r="E43" s="3">
-        <v>870200</v>
+        <v>896700</v>
       </c>
       <c r="F43" s="3">
-        <v>281400</v>
+        <v>289900</v>
       </c>
       <c r="G43" s="3">
-        <v>206400</v>
+        <v>212700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50400</v>
+        <v>51900</v>
       </c>
       <c r="E45" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="F45" s="3">
-        <v>40300</v>
+        <v>41600</v>
       </c>
       <c r="G45" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>810300</v>
+        <v>835000</v>
       </c>
       <c r="E46" s="3">
-        <v>708200</v>
+        <v>729800</v>
       </c>
       <c r="F46" s="3">
-        <v>424400</v>
+        <v>437400</v>
       </c>
       <c r="G46" s="3">
-        <v>322600</v>
+        <v>332400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>523400</v>
+        <v>539400</v>
       </c>
       <c r="E48" s="3">
-        <v>467800</v>
+        <v>482100</v>
       </c>
       <c r="F48" s="3">
-        <v>389000</v>
+        <v>400900</v>
       </c>
       <c r="G48" s="3">
-        <v>148900</v>
+        <v>153400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3280100</v>
+        <v>3380100</v>
       </c>
       <c r="E49" s="3">
-        <v>3797500</v>
+        <v>3913200</v>
       </c>
       <c r="F49" s="3">
-        <v>656700</v>
+        <v>676700</v>
       </c>
       <c r="G49" s="3">
-        <v>679800</v>
+        <v>700500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72400</v>
+        <v>74600</v>
       </c>
       <c r="E52" s="3">
-        <v>53000</v>
+        <v>54600</v>
       </c>
       <c r="F52" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="G52" s="3">
-        <v>23700</v>
+        <v>24400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4686200</v>
+        <v>4829100</v>
       </c>
       <c r="E54" s="3">
-        <v>4823200</v>
+        <v>4970300</v>
       </c>
       <c r="F54" s="3">
-        <v>1510800</v>
+        <v>1556900</v>
       </c>
       <c r="G54" s="3">
-        <v>1174900</v>
+        <v>1210700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>422600</v>
+        <v>435500</v>
       </c>
       <c r="E57" s="3">
-        <v>328300</v>
+        <v>338300</v>
       </c>
       <c r="F57" s="3">
-        <v>196700</v>
+        <v>202700</v>
       </c>
       <c r="G57" s="3">
-        <v>149500</v>
+        <v>154100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>423900</v>
+        <v>436800</v>
       </c>
       <c r="E58" s="3">
-        <v>118900</v>
+        <v>122500</v>
       </c>
       <c r="F58" s="3">
-        <v>55300</v>
+        <v>57000</v>
       </c>
       <c r="G58" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>196400</v>
+        <v>202400</v>
       </c>
       <c r="E59" s="3">
-        <v>204200</v>
+        <v>210400</v>
       </c>
       <c r="F59" s="3">
-        <v>104600</v>
+        <v>107700</v>
       </c>
       <c r="G59" s="3">
-        <v>91500</v>
+        <v>94300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1043000</v>
+        <v>1074800</v>
       </c>
       <c r="E60" s="3">
-        <v>651400</v>
+        <v>671200</v>
       </c>
       <c r="F60" s="3">
-        <v>356600</v>
+        <v>367400</v>
       </c>
       <c r="G60" s="3">
-        <v>248800</v>
+        <v>256400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1059800</v>
+        <v>1092100</v>
       </c>
       <c r="E61" s="3">
-        <v>2163500</v>
+        <v>2229400</v>
       </c>
       <c r="F61" s="3">
-        <v>617400</v>
+        <v>636200</v>
       </c>
       <c r="G61" s="3">
-        <v>390300</v>
+        <v>402200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>444600</v>
+        <v>458100</v>
       </c>
       <c r="E62" s="3">
-        <v>598000</v>
+        <v>616200</v>
       </c>
       <c r="F62" s="3">
-        <v>219200</v>
+        <v>225900</v>
       </c>
       <c r="G62" s="3">
-        <v>281600</v>
+        <v>290200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2547300</v>
+        <v>2625000</v>
       </c>
       <c r="E66" s="3">
-        <v>3387400</v>
+        <v>3490600</v>
       </c>
       <c r="F66" s="3">
-        <v>1193100</v>
+        <v>1229500</v>
       </c>
       <c r="G66" s="3">
-        <v>920700</v>
+        <v>948800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,10 +2449,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>138300</v>
+        <v>142500</v>
       </c>
       <c r="E72" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2138900</v>
+        <v>2204100</v>
       </c>
       <c r="E76" s="3">
-        <v>1435900</v>
+        <v>1479600</v>
       </c>
       <c r="F76" s="3">
-        <v>317700</v>
+        <v>327400</v>
       </c>
       <c r="G76" s="3">
-        <v>254200</v>
+        <v>262000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100800</v>
+        <v>103900</v>
       </c>
       <c r="E81" s="3">
-        <v>133000</v>
+        <v>137000</v>
       </c>
       <c r="F81" s="3">
-        <v>89200</v>
+        <v>91900</v>
       </c>
       <c r="G81" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="H81" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>332100</v>
+        <v>342300</v>
       </c>
       <c r="E83" s="3">
-        <v>235500</v>
+        <v>242700</v>
       </c>
       <c r="F83" s="3">
-        <v>119200</v>
+        <v>122800</v>
       </c>
       <c r="G83" s="3">
-        <v>64000</v>
+        <v>65900</v>
       </c>
       <c r="H83" s="3">
-        <v>41600</v>
+        <v>42900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>364500</v>
+        <v>375600</v>
       </c>
       <c r="E89" s="3">
-        <v>339900</v>
+        <v>350300</v>
       </c>
       <c r="F89" s="3">
-        <v>183000</v>
+        <v>188600</v>
       </c>
       <c r="G89" s="3">
-        <v>120800</v>
+        <v>124500</v>
       </c>
       <c r="H89" s="3">
-        <v>117500</v>
+        <v>121100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-127900</v>
+        <v>-131800</v>
       </c>
       <c r="E91" s="3">
-        <v>-76500</v>
+        <v>-78800</v>
       </c>
       <c r="F91" s="3">
-        <v>-68100</v>
+        <v>-70200</v>
       </c>
       <c r="G91" s="3">
-        <v>-61400</v>
+        <v>-63300</v>
       </c>
       <c r="H91" s="3">
-        <v>-57500</v>
+        <v>-59300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-142200</v>
+        <v>-146500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2418200</v>
+        <v>-2491900</v>
       </c>
       <c r="F94" s="3">
-        <v>-133800</v>
+        <v>-137800</v>
       </c>
       <c r="G94" s="3">
-        <v>-210500</v>
+        <v>-217000</v>
       </c>
       <c r="H94" s="3">
-        <v>-138300</v>
+        <v>-142500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-266200</v>
+        <v>-274400</v>
       </c>
       <c r="E100" s="3">
-        <v>2184900</v>
+        <v>2251500</v>
       </c>
       <c r="F100" s="3">
-        <v>-31000</v>
+        <v>-32000</v>
       </c>
       <c r="G100" s="3">
-        <v>65500</v>
+        <v>67500</v>
       </c>
       <c r="H100" s="3">
-        <v>62800</v>
+        <v>64700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E101" s="3">
-        <v>-12300</v>
+        <v>-12700</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H101" s="3">
         <v>1300</v>
@@ -3246,19 +3246,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-49100</v>
+        <v>-50600</v>
       </c>
       <c r="E102" s="3">
-        <v>94300</v>
+        <v>97200</v>
       </c>
       <c r="F102" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="G102" s="3">
-        <v>-25600</v>
+        <v>-26400</v>
       </c>
       <c r="H102" s="3">
-        <v>43300</v>
+        <v>44600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>TIXT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2922000</v>
+        <v>3412500</v>
       </c>
       <c r="E8" s="3">
-        <v>2106400</v>
+        <v>3033600</v>
       </c>
       <c r="F8" s="3">
-        <v>1357900</v>
+        <v>2186900</v>
       </c>
       <c r="G8" s="3">
-        <v>1111500</v>
+        <v>1409800</v>
       </c>
       <c r="H8" s="3">
-        <v>763400</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>1154000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>792600</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -738,29 +741,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>575300</v>
+        <v>647100</v>
       </c>
       <c r="E9" s="3">
-        <v>324300</v>
+        <v>597300</v>
       </c>
       <c r="F9" s="3">
-        <v>235900</v>
+        <v>336700</v>
       </c>
       <c r="G9" s="3">
-        <v>232100</v>
+        <v>244900</v>
       </c>
       <c r="H9" s="3">
-        <v>130600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>241000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>135600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,29 +774,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2346600</v>
+        <v>2765400</v>
       </c>
       <c r="E10" s="3">
-        <v>1782100</v>
+        <v>2436300</v>
       </c>
       <c r="F10" s="3">
-        <v>1122000</v>
+        <v>1850200</v>
       </c>
       <c r="G10" s="3">
-        <v>879400</v>
+        <v>1164900</v>
       </c>
       <c r="H10" s="3">
-        <v>632700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>913000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>656900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,29 +888,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30600</v>
+        <v>55300</v>
       </c>
       <c r="E14" s="3">
-        <v>78200</v>
+        <v>31800</v>
       </c>
       <c r="F14" s="3">
-        <v>8100</v>
+        <v>81200</v>
       </c>
       <c r="G14" s="3">
-        <v>4900</v>
+        <v>8400</v>
       </c>
       <c r="H14" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>5100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -902,29 +921,32 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>342300</v>
+        <v>356700</v>
       </c>
       <c r="E15" s="3">
-        <v>242700</v>
+        <v>355400</v>
       </c>
       <c r="F15" s="3">
-        <v>122800</v>
+        <v>251900</v>
       </c>
       <c r="G15" s="3">
-        <v>65900</v>
+        <v>127500</v>
       </c>
       <c r="H15" s="3">
-        <v>42900</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>68400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>44500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,28 +969,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2675600</v>
+        <v>3019800</v>
       </c>
       <c r="E17" s="3">
-        <v>1945400</v>
+        <v>2777800</v>
       </c>
       <c r="F17" s="3">
-        <v>1205900</v>
+        <v>2019700</v>
       </c>
       <c r="G17" s="3">
-        <v>994700</v>
+        <v>1252000</v>
       </c>
       <c r="H17" s="3">
-        <v>671900</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>1032700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>697600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -973,29 +999,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>246400</v>
+        <v>392700</v>
       </c>
       <c r="E18" s="3">
-        <v>161000</v>
+        <v>255800</v>
       </c>
       <c r="F18" s="3">
-        <v>152000</v>
+        <v>167200</v>
       </c>
       <c r="G18" s="3">
-        <v>116800</v>
+        <v>157800</v>
       </c>
       <c r="H18" s="3">
-        <v>91500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>121300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>95000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,58 +1050,62 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1300</v>
+        <v>9700</v>
       </c>
       <c r="E20" s="3">
-        <v>99900</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>22900</v>
+        <v>103700</v>
       </c>
       <c r="G20" s="3">
-        <v>6000</v>
+        <v>23800</v>
       </c>
       <c r="H20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>595300</v>
+        <v>758500</v>
       </c>
       <c r="E21" s="3">
-        <v>507300</v>
+        <v>611900</v>
       </c>
       <c r="F21" s="3">
-        <v>299600</v>
+        <v>522400</v>
       </c>
       <c r="G21" s="3">
-        <v>189700</v>
+        <v>308800</v>
       </c>
       <c r="H21" s="3">
-        <v>135700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>195800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>140100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1077,29 +1113,32 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>58600</v>
+        <v>56700</v>
       </c>
       <c r="E22" s="3">
-        <v>60500</v>
+        <v>60800</v>
       </c>
       <c r="F22" s="3">
-        <v>48300</v>
+        <v>62800</v>
       </c>
       <c r="G22" s="3">
-        <v>30900</v>
+        <v>50200</v>
       </c>
       <c r="H22" s="3">
-        <v>13500</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>32100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>14000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1107,29 +1146,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>189100</v>
+        <v>345700</v>
       </c>
       <c r="E23" s="3">
-        <v>200400</v>
+        <v>196300</v>
       </c>
       <c r="F23" s="3">
-        <v>126500</v>
+        <v>208100</v>
       </c>
       <c r="G23" s="3">
-        <v>91900</v>
+        <v>131400</v>
       </c>
       <c r="H23" s="3">
-        <v>78700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>95400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>81700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1179,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85200</v>
+        <v>92600</v>
       </c>
       <c r="E24" s="3">
-        <v>63400</v>
+        <v>88500</v>
       </c>
       <c r="F24" s="3">
-        <v>34600</v>
+        <v>65800</v>
       </c>
       <c r="G24" s="3">
-        <v>29200</v>
+        <v>36000</v>
       </c>
       <c r="H24" s="3">
-        <v>20900</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>30300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>21700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,29 +1245,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103900</v>
+        <v>253000</v>
       </c>
       <c r="E26" s="3">
-        <v>137000</v>
+        <v>107900</v>
       </c>
       <c r="F26" s="3">
-        <v>91900</v>
+        <v>142300</v>
       </c>
       <c r="G26" s="3">
-        <v>62700</v>
+        <v>95400</v>
       </c>
       <c r="H26" s="3">
-        <v>57800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>65100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>60000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1278,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103900</v>
+        <v>253000</v>
       </c>
       <c r="E27" s="3">
-        <v>137000</v>
+        <v>107900</v>
       </c>
       <c r="F27" s="3">
-        <v>91900</v>
+        <v>142300</v>
       </c>
       <c r="G27" s="3">
-        <v>62700</v>
+        <v>95400</v>
       </c>
       <c r="H27" s="3">
-        <v>57800</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>65100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>60000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,59 +1443,65 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1300</v>
+        <v>-9700</v>
       </c>
       <c r="E32" s="3">
-        <v>-99900</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-22900</v>
+        <v>-103700</v>
       </c>
       <c r="G32" s="3">
-        <v>-6000</v>
+        <v>-23800</v>
       </c>
       <c r="H32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>103900</v>
+        <v>253000</v>
       </c>
       <c r="E33" s="3">
-        <v>137000</v>
+        <v>107900</v>
       </c>
       <c r="F33" s="3">
-        <v>91900</v>
+        <v>142300</v>
       </c>
       <c r="G33" s="3">
-        <v>62700</v>
+        <v>95400</v>
       </c>
       <c r="H33" s="3">
-        <v>57800</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>65100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>60000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,29 +1542,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>103900</v>
+        <v>253000</v>
       </c>
       <c r="E35" s="3">
-        <v>137000</v>
+        <v>107900</v>
       </c>
       <c r="F35" s="3">
-        <v>91900</v>
+        <v>142300</v>
       </c>
       <c r="G35" s="3">
-        <v>62700</v>
+        <v>95400</v>
       </c>
       <c r="H35" s="3">
-        <v>57800</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>65100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>60000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1497,44 +1575,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>153200</v>
+        <v>172800</v>
       </c>
       <c r="E41" s="3">
-        <v>203800</v>
+        <v>159000</v>
       </c>
       <c r="F41" s="3">
-        <v>105900</v>
+        <v>211600</v>
       </c>
       <c r="G41" s="3">
-        <v>87400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>109900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>90700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>629900</v>
+        <v>713500</v>
       </c>
       <c r="E43" s="3">
-        <v>896700</v>
+        <v>654000</v>
       </c>
       <c r="F43" s="3">
-        <v>289900</v>
+        <v>931000</v>
       </c>
       <c r="G43" s="3">
-        <v>212700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>301000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>220800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,26 +1775,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51900</v>
+        <v>74700</v>
       </c>
       <c r="E45" s="3">
-        <v>33300</v>
+        <v>53900</v>
       </c>
       <c r="F45" s="3">
-        <v>41600</v>
+        <v>34600</v>
       </c>
       <c r="G45" s="3">
-        <v>32400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>43100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>33600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>835000</v>
+        <v>961000</v>
       </c>
       <c r="E46" s="3">
-        <v>729800</v>
+        <v>867000</v>
       </c>
       <c r="F46" s="3">
-        <v>437400</v>
+        <v>757700</v>
       </c>
       <c r="G46" s="3">
-        <v>332400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>454100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>345100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,26 +1874,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>539400</v>
+        <v>620800</v>
       </c>
       <c r="E48" s="3">
-        <v>482100</v>
+        <v>560000</v>
       </c>
       <c r="F48" s="3">
-        <v>400900</v>
+        <v>500500</v>
       </c>
       <c r="G48" s="3">
-        <v>153400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>416200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>159300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,26 +1907,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3380100</v>
+        <v>3260400</v>
       </c>
       <c r="E49" s="3">
-        <v>3913200</v>
+        <v>3509300</v>
       </c>
       <c r="F49" s="3">
-        <v>676700</v>
+        <v>4062800</v>
       </c>
       <c r="G49" s="3">
-        <v>700500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>702500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>727300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74600</v>
+        <v>74700</v>
       </c>
       <c r="E52" s="3">
-        <v>54600</v>
+        <v>77400</v>
       </c>
       <c r="F52" s="3">
-        <v>42000</v>
+        <v>56700</v>
       </c>
       <c r="G52" s="3">
-        <v>24400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>43600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>25300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4829100</v>
+        <v>4916900</v>
       </c>
       <c r="E54" s="3">
-        <v>4970300</v>
+        <v>5013700</v>
       </c>
       <c r="F54" s="3">
-        <v>1556900</v>
+        <v>5160200</v>
       </c>
       <c r="G54" s="3">
-        <v>1210700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1616400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1257000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>435500</v>
+        <v>401000</v>
       </c>
       <c r="E57" s="3">
-        <v>338300</v>
+        <v>452100</v>
       </c>
       <c r="F57" s="3">
-        <v>202700</v>
+        <v>351200</v>
       </c>
       <c r="G57" s="3">
-        <v>154100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>210400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>160000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>436800</v>
+        <v>114800</v>
       </c>
       <c r="E58" s="3">
-        <v>122500</v>
+        <v>453500</v>
       </c>
       <c r="F58" s="3">
-        <v>57000</v>
+        <v>127200</v>
       </c>
       <c r="G58" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>59200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202400</v>
+        <v>247500</v>
       </c>
       <c r="E59" s="3">
-        <v>210400</v>
+        <v>210200</v>
       </c>
       <c r="F59" s="3">
-        <v>107700</v>
+        <v>218500</v>
       </c>
       <c r="G59" s="3">
-        <v>94300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>111900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>97900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1074800</v>
+        <v>763300</v>
       </c>
       <c r="E60" s="3">
-        <v>671200</v>
+        <v>1115800</v>
       </c>
       <c r="F60" s="3">
-        <v>367400</v>
+        <v>696900</v>
       </c>
       <c r="G60" s="3">
-        <v>256400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>381500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>266200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,26 +2267,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1092100</v>
+        <v>1218200</v>
       </c>
       <c r="E61" s="3">
-        <v>2229400</v>
+        <v>1133800</v>
       </c>
       <c r="F61" s="3">
-        <v>636200</v>
+        <v>2314600</v>
       </c>
       <c r="G61" s="3">
-        <v>402200</v>
+        <v>660500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>417600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>458100</v>
+        <v>394100</v>
       </c>
       <c r="E62" s="3">
-        <v>616200</v>
+        <v>475600</v>
       </c>
       <c r="F62" s="3">
-        <v>225900</v>
+        <v>639800</v>
       </c>
       <c r="G62" s="3">
-        <v>290200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>234500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>301300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2625000</v>
+        <v>2375500</v>
       </c>
       <c r="E66" s="3">
-        <v>3490600</v>
+        <v>2725300</v>
       </c>
       <c r="F66" s="3">
-        <v>1229500</v>
+        <v>3624100</v>
       </c>
       <c r="G66" s="3">
-        <v>948800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>1276500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>985000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,20 +2612,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>142500</v>
+        <v>403700</v>
       </c>
       <c r="E72" s="3">
-        <v>43900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>147900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2204100</v>
+        <v>2541400</v>
       </c>
       <c r="E76" s="3">
-        <v>1479600</v>
+        <v>2288400</v>
       </c>
       <c r="F76" s="3">
-        <v>327400</v>
+        <v>1536200</v>
       </c>
       <c r="G76" s="3">
-        <v>262000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>339900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>272000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,64 +2810,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>103900</v>
+        <v>253000</v>
       </c>
       <c r="E81" s="3">
-        <v>137000</v>
+        <v>107900</v>
       </c>
       <c r="F81" s="3">
-        <v>91900</v>
+        <v>142300</v>
       </c>
       <c r="G81" s="3">
-        <v>62700</v>
+        <v>95400</v>
       </c>
       <c r="H81" s="3">
-        <v>57800</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>65100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>60000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,28 +2899,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>342300</v>
+        <v>356700</v>
       </c>
       <c r="E83" s="3">
-        <v>242700</v>
+        <v>355400</v>
       </c>
       <c r="F83" s="3">
-        <v>122800</v>
+        <v>251900</v>
       </c>
       <c r="G83" s="3">
-        <v>65900</v>
+        <v>127500</v>
       </c>
       <c r="H83" s="3">
-        <v>42900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>68400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>44500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,29 +3094,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>375600</v>
+        <v>604200</v>
       </c>
       <c r="E89" s="3">
-        <v>350300</v>
+        <v>430000</v>
       </c>
       <c r="F89" s="3">
-        <v>188600</v>
+        <v>363700</v>
       </c>
       <c r="G89" s="3">
-        <v>124500</v>
+        <v>195800</v>
       </c>
       <c r="H89" s="3">
-        <v>121100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>129300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>125700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,28 +3145,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-131800</v>
+        <v>-145200</v>
       </c>
       <c r="E91" s="3">
-        <v>-78800</v>
+        <v>-136900</v>
       </c>
       <c r="F91" s="3">
-        <v>-70200</v>
+        <v>-81900</v>
       </c>
       <c r="G91" s="3">
-        <v>-63300</v>
+        <v>-72900</v>
       </c>
       <c r="H91" s="3">
-        <v>-59300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-65700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-61500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,29 +3241,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-146500</v>
+        <v>-164500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2491900</v>
+        <v>-152100</v>
       </c>
       <c r="F94" s="3">
-        <v>-137800</v>
+        <v>-2587200</v>
       </c>
       <c r="G94" s="3">
-        <v>-217000</v>
+        <v>-143100</v>
       </c>
       <c r="H94" s="3">
-        <v>-142500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-225200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-147900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,29 +3421,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-274400</v>
+        <v>-414800</v>
       </c>
       <c r="E100" s="3">
-        <v>2251500</v>
+        <v>-324900</v>
       </c>
       <c r="F100" s="3">
-        <v>-32000</v>
+        <v>2337600</v>
       </c>
       <c r="G100" s="3">
-        <v>67500</v>
+        <v>-33200</v>
       </c>
       <c r="H100" s="3">
-        <v>64700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>70100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>67200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3209,29 +3454,32 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5300</v>
+        <v>-11100</v>
       </c>
       <c r="E101" s="3">
-        <v>-12700</v>
+        <v>-5500</v>
       </c>
       <c r="F101" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>1400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3239,29 +3487,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50600</v>
+        <v>13800</v>
       </c>
       <c r="E102" s="3">
-        <v>97200</v>
+        <v>-52500</v>
       </c>
       <c r="F102" s="3">
-        <v>18500</v>
+        <v>100900</v>
       </c>
       <c r="G102" s="3">
-        <v>-26400</v>
+        <v>19200</v>
       </c>
       <c r="H102" s="3">
-        <v>44600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>-27400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>46300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3412500</v>
+        <v>3331800</v>
       </c>
       <c r="E8" s="3">
-        <v>3033600</v>
+        <v>2961900</v>
       </c>
       <c r="F8" s="3">
-        <v>2186900</v>
+        <v>2135200</v>
       </c>
       <c r="G8" s="3">
-        <v>1409800</v>
+        <v>1376500</v>
       </c>
       <c r="H8" s="3">
-        <v>1154000</v>
+        <v>1126700</v>
       </c>
       <c r="I8" s="3">
-        <v>792600</v>
+        <v>773800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>647100</v>
+        <v>631800</v>
       </c>
       <c r="E9" s="3">
-        <v>597300</v>
+        <v>583200</v>
       </c>
       <c r="F9" s="3">
-        <v>336700</v>
+        <v>328700</v>
       </c>
       <c r="G9" s="3">
-        <v>244900</v>
+        <v>239100</v>
       </c>
       <c r="H9" s="3">
-        <v>241000</v>
+        <v>235300</v>
       </c>
       <c r="I9" s="3">
-        <v>135600</v>
+        <v>132400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2765400</v>
+        <v>2700000</v>
       </c>
       <c r="E10" s="3">
-        <v>2436300</v>
+        <v>2378700</v>
       </c>
       <c r="F10" s="3">
-        <v>1850200</v>
+        <v>1806400</v>
       </c>
       <c r="G10" s="3">
-        <v>1164900</v>
+        <v>1137400</v>
       </c>
       <c r="H10" s="3">
-        <v>913000</v>
+        <v>891400</v>
       </c>
       <c r="I10" s="3">
-        <v>656900</v>
+        <v>641400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,22 +898,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>55300</v>
+        <v>54000</v>
       </c>
       <c r="E14" s="3">
-        <v>31800</v>
+        <v>31100</v>
       </c>
       <c r="F14" s="3">
-        <v>81200</v>
+        <v>79200</v>
       </c>
       <c r="G14" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I14" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -931,22 +931,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>356700</v>
+        <v>348300</v>
       </c>
       <c r="E15" s="3">
-        <v>355400</v>
+        <v>347000</v>
       </c>
       <c r="F15" s="3">
-        <v>251900</v>
+        <v>246000</v>
       </c>
       <c r="G15" s="3">
-        <v>127500</v>
+        <v>124500</v>
       </c>
       <c r="H15" s="3">
-        <v>68400</v>
+        <v>66800</v>
       </c>
       <c r="I15" s="3">
-        <v>44500</v>
+        <v>43500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3019800</v>
+        <v>2948400</v>
       </c>
       <c r="E17" s="3">
-        <v>2777800</v>
+        <v>2712200</v>
       </c>
       <c r="F17" s="3">
-        <v>2019700</v>
+        <v>1971900</v>
       </c>
       <c r="G17" s="3">
-        <v>1252000</v>
+        <v>1222400</v>
       </c>
       <c r="H17" s="3">
-        <v>1032700</v>
+        <v>1008300</v>
       </c>
       <c r="I17" s="3">
-        <v>697600</v>
+        <v>681100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>392700</v>
+        <v>383400</v>
       </c>
       <c r="E18" s="3">
-        <v>255800</v>
+        <v>249800</v>
       </c>
       <c r="F18" s="3">
-        <v>167200</v>
+        <v>163200</v>
       </c>
       <c r="G18" s="3">
-        <v>157800</v>
+        <v>154000</v>
       </c>
       <c r="H18" s="3">
-        <v>121300</v>
+        <v>118400</v>
       </c>
       <c r="I18" s="3">
-        <v>95000</v>
+        <v>92700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="E20" s="3">
         <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>103700</v>
+        <v>101300</v>
       </c>
       <c r="G20" s="3">
-        <v>23800</v>
+        <v>23200</v>
       </c>
       <c r="H20" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>758500</v>
+        <v>739900</v>
       </c>
       <c r="E21" s="3">
-        <v>611900</v>
+        <v>596800</v>
       </c>
       <c r="F21" s="3">
-        <v>522400</v>
+        <v>509500</v>
       </c>
       <c r="G21" s="3">
-        <v>308800</v>
+        <v>301300</v>
       </c>
       <c r="H21" s="3">
-        <v>195800</v>
+        <v>191100</v>
       </c>
       <c r="I21" s="3">
-        <v>140100</v>
+        <v>136700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56700</v>
+        <v>55400</v>
       </c>
       <c r="E22" s="3">
-        <v>60800</v>
+        <v>59400</v>
       </c>
       <c r="F22" s="3">
-        <v>62800</v>
+        <v>61300</v>
       </c>
       <c r="G22" s="3">
-        <v>50200</v>
+        <v>49000</v>
       </c>
       <c r="H22" s="3">
-        <v>32100</v>
+        <v>31300</v>
       </c>
       <c r="I22" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>345700</v>
+        <v>337500</v>
       </c>
       <c r="E23" s="3">
-        <v>196300</v>
+        <v>191700</v>
       </c>
       <c r="F23" s="3">
-        <v>208100</v>
+        <v>203200</v>
       </c>
       <c r="G23" s="3">
-        <v>131400</v>
+        <v>128300</v>
       </c>
       <c r="H23" s="3">
-        <v>95400</v>
+        <v>93200</v>
       </c>
       <c r="I23" s="3">
-        <v>81700</v>
+        <v>79800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>92600</v>
+        <v>90500</v>
       </c>
       <c r="E24" s="3">
-        <v>88500</v>
+        <v>86400</v>
       </c>
       <c r="F24" s="3">
-        <v>65800</v>
+        <v>64300</v>
       </c>
       <c r="G24" s="3">
-        <v>36000</v>
+        <v>35100</v>
       </c>
       <c r="H24" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="I24" s="3">
-        <v>21700</v>
+        <v>21200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>253000</v>
+        <v>247100</v>
       </c>
       <c r="E26" s="3">
-        <v>107900</v>
+        <v>105300</v>
       </c>
       <c r="F26" s="3">
-        <v>142300</v>
+        <v>138900</v>
       </c>
       <c r="G26" s="3">
-        <v>95400</v>
+        <v>93200</v>
       </c>
       <c r="H26" s="3">
-        <v>65100</v>
+        <v>63600</v>
       </c>
       <c r="I26" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>253000</v>
+        <v>247100</v>
       </c>
       <c r="E27" s="3">
-        <v>107900</v>
+        <v>105300</v>
       </c>
       <c r="F27" s="3">
-        <v>142300</v>
+        <v>138900</v>
       </c>
       <c r="G27" s="3">
-        <v>95400</v>
+        <v>93200</v>
       </c>
       <c r="H27" s="3">
-        <v>65100</v>
+        <v>63600</v>
       </c>
       <c r="I27" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="E32" s="3">
         <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-103700</v>
+        <v>-101300</v>
       </c>
       <c r="G32" s="3">
-        <v>-23800</v>
+        <v>-23200</v>
       </c>
       <c r="H32" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>253000</v>
+        <v>247100</v>
       </c>
       <c r="E33" s="3">
-        <v>107900</v>
+        <v>105300</v>
       </c>
       <c r="F33" s="3">
-        <v>142300</v>
+        <v>138900</v>
       </c>
       <c r="G33" s="3">
-        <v>95400</v>
+        <v>93200</v>
       </c>
       <c r="H33" s="3">
-        <v>65100</v>
+        <v>63600</v>
       </c>
       <c r="I33" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>253000</v>
+        <v>247100</v>
       </c>
       <c r="E35" s="3">
-        <v>107900</v>
+        <v>105300</v>
       </c>
       <c r="F35" s="3">
-        <v>142300</v>
+        <v>138900</v>
       </c>
       <c r="G35" s="3">
-        <v>95400</v>
+        <v>93200</v>
       </c>
       <c r="H35" s="3">
-        <v>65100</v>
+        <v>63600</v>
       </c>
       <c r="I35" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>172800</v>
+        <v>168800</v>
       </c>
       <c r="E41" s="3">
-        <v>159000</v>
+        <v>155300</v>
       </c>
       <c r="F41" s="3">
-        <v>211600</v>
+        <v>206600</v>
       </c>
       <c r="G41" s="3">
-        <v>109900</v>
+        <v>107300</v>
       </c>
       <c r="H41" s="3">
-        <v>90700</v>
+        <v>88600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>713500</v>
+        <v>696600</v>
       </c>
       <c r="E43" s="3">
-        <v>654000</v>
+        <v>638600</v>
       </c>
       <c r="F43" s="3">
-        <v>931000</v>
+        <v>909000</v>
       </c>
       <c r="G43" s="3">
-        <v>301000</v>
+        <v>293900</v>
       </c>
       <c r="H43" s="3">
-        <v>220800</v>
+        <v>215600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74700</v>
+        <v>72900</v>
       </c>
       <c r="E45" s="3">
-        <v>53900</v>
+        <v>52700</v>
       </c>
       <c r="F45" s="3">
-        <v>34600</v>
+        <v>33800</v>
       </c>
       <c r="G45" s="3">
-        <v>43100</v>
+        <v>42100</v>
       </c>
       <c r="H45" s="3">
-        <v>33600</v>
+        <v>32800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>961000</v>
+        <v>938300</v>
       </c>
       <c r="E46" s="3">
-        <v>867000</v>
+        <v>846500</v>
       </c>
       <c r="F46" s="3">
-        <v>757700</v>
+        <v>739800</v>
       </c>
       <c r="G46" s="3">
-        <v>454100</v>
+        <v>443300</v>
       </c>
       <c r="H46" s="3">
-        <v>345100</v>
+        <v>337000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>620800</v>
+        <v>606200</v>
       </c>
       <c r="E48" s="3">
-        <v>560000</v>
+        <v>546800</v>
       </c>
       <c r="F48" s="3">
-        <v>500500</v>
+        <v>488700</v>
       </c>
       <c r="G48" s="3">
-        <v>416200</v>
+        <v>406400</v>
       </c>
       <c r="H48" s="3">
-        <v>159300</v>
+        <v>155500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3260400</v>
+        <v>3183300</v>
       </c>
       <c r="E49" s="3">
-        <v>3509300</v>
+        <v>3426300</v>
       </c>
       <c r="F49" s="3">
-        <v>4062800</v>
+        <v>3966700</v>
       </c>
       <c r="G49" s="3">
-        <v>702500</v>
+        <v>685900</v>
       </c>
       <c r="H49" s="3">
-        <v>727300</v>
+        <v>710100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74700</v>
+        <v>72900</v>
       </c>
       <c r="E52" s="3">
-        <v>77400</v>
+        <v>75600</v>
       </c>
       <c r="F52" s="3">
-        <v>56700</v>
+        <v>55400</v>
       </c>
       <c r="G52" s="3">
-        <v>43600</v>
+        <v>42500</v>
       </c>
       <c r="H52" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4916900</v>
+        <v>4800600</v>
       </c>
       <c r="E54" s="3">
-        <v>5013700</v>
+        <v>4895100</v>
       </c>
       <c r="F54" s="3">
-        <v>5160200</v>
+        <v>5038200</v>
       </c>
       <c r="G54" s="3">
-        <v>1616400</v>
+        <v>1578200</v>
       </c>
       <c r="H54" s="3">
-        <v>1257000</v>
+        <v>1227300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>401000</v>
+        <v>391500</v>
       </c>
       <c r="E57" s="3">
-        <v>452100</v>
+        <v>441500</v>
       </c>
       <c r="F57" s="3">
-        <v>351200</v>
+        <v>342900</v>
       </c>
       <c r="G57" s="3">
-        <v>210400</v>
+        <v>205500</v>
       </c>
       <c r="H57" s="3">
-        <v>160000</v>
+        <v>156200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>114800</v>
+        <v>112100</v>
       </c>
       <c r="E58" s="3">
-        <v>453500</v>
+        <v>442800</v>
       </c>
       <c r="F58" s="3">
-        <v>127200</v>
+        <v>124200</v>
       </c>
       <c r="G58" s="3">
-        <v>59200</v>
+        <v>57800</v>
       </c>
       <c r="H58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>247500</v>
+        <v>241700</v>
       </c>
       <c r="E59" s="3">
-        <v>210200</v>
+        <v>205200</v>
       </c>
       <c r="F59" s="3">
-        <v>218500</v>
+        <v>213300</v>
       </c>
       <c r="G59" s="3">
-        <v>111900</v>
+        <v>109200</v>
       </c>
       <c r="H59" s="3">
-        <v>97900</v>
+        <v>95600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>763300</v>
+        <v>745200</v>
       </c>
       <c r="E60" s="3">
-        <v>1115800</v>
+        <v>1089500</v>
       </c>
       <c r="F60" s="3">
-        <v>696900</v>
+        <v>680400</v>
       </c>
       <c r="G60" s="3">
-        <v>381500</v>
+        <v>372500</v>
       </c>
       <c r="H60" s="3">
-        <v>266200</v>
+        <v>259900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1218200</v>
+        <v>1189400</v>
       </c>
       <c r="E61" s="3">
-        <v>1133800</v>
+        <v>1107000</v>
       </c>
       <c r="F61" s="3">
-        <v>2314600</v>
+        <v>2259900</v>
       </c>
       <c r="G61" s="3">
-        <v>660500</v>
+        <v>644900</v>
       </c>
       <c r="H61" s="3">
-        <v>417600</v>
+        <v>407700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>394100</v>
+        <v>384800</v>
       </c>
       <c r="E62" s="3">
-        <v>475600</v>
+        <v>464400</v>
       </c>
       <c r="F62" s="3">
-        <v>639800</v>
+        <v>624600</v>
       </c>
       <c r="G62" s="3">
-        <v>234500</v>
+        <v>229000</v>
       </c>
       <c r="H62" s="3">
-        <v>301300</v>
+        <v>294200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2375500</v>
+        <v>2319300</v>
       </c>
       <c r="E66" s="3">
-        <v>2725300</v>
+        <v>2660900</v>
       </c>
       <c r="F66" s="3">
-        <v>3624100</v>
+        <v>3538400</v>
       </c>
       <c r="G66" s="3">
-        <v>1276500</v>
+        <v>1246300</v>
       </c>
       <c r="H66" s="3">
-        <v>985000</v>
+        <v>961700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,13 +2622,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>403700</v>
+        <v>394200</v>
       </c>
       <c r="E72" s="3">
-        <v>147900</v>
+        <v>144500</v>
       </c>
       <c r="F72" s="3">
-        <v>45600</v>
+        <v>44600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2541400</v>
+        <v>2481300</v>
       </c>
       <c r="E76" s="3">
-        <v>2288400</v>
+        <v>2234300</v>
       </c>
       <c r="F76" s="3">
-        <v>1536200</v>
+        <v>1499900</v>
       </c>
       <c r="G76" s="3">
-        <v>339900</v>
+        <v>331800</v>
       </c>
       <c r="H76" s="3">
-        <v>272000</v>
+        <v>265500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>253000</v>
+        <v>247100</v>
       </c>
       <c r="E81" s="3">
-        <v>107900</v>
+        <v>105300</v>
       </c>
       <c r="F81" s="3">
-        <v>142300</v>
+        <v>138900</v>
       </c>
       <c r="G81" s="3">
-        <v>95400</v>
+        <v>93200</v>
       </c>
       <c r="H81" s="3">
-        <v>65100</v>
+        <v>63600</v>
       </c>
       <c r="I81" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>356700</v>
+        <v>348300</v>
       </c>
       <c r="E83" s="3">
-        <v>355400</v>
+        <v>347000</v>
       </c>
       <c r="F83" s="3">
-        <v>251900</v>
+        <v>246000</v>
       </c>
       <c r="G83" s="3">
-        <v>127500</v>
+        <v>124500</v>
       </c>
       <c r="H83" s="3">
-        <v>68400</v>
+        <v>66800</v>
       </c>
       <c r="I83" s="3">
-        <v>44500</v>
+        <v>43500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>604200</v>
+        <v>590000</v>
       </c>
       <c r="E89" s="3">
-        <v>430000</v>
+        <v>419900</v>
       </c>
       <c r="F89" s="3">
-        <v>363700</v>
+        <v>355100</v>
       </c>
       <c r="G89" s="3">
-        <v>195800</v>
+        <v>191200</v>
       </c>
       <c r="H89" s="3">
-        <v>129300</v>
+        <v>126200</v>
       </c>
       <c r="I89" s="3">
-        <v>125700</v>
+        <v>122700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-145200</v>
+        <v>-141800</v>
       </c>
       <c r="E91" s="3">
-        <v>-136900</v>
+        <v>-133700</v>
       </c>
       <c r="F91" s="3">
-        <v>-81900</v>
+        <v>-79900</v>
       </c>
       <c r="G91" s="3">
-        <v>-72900</v>
+        <v>-71100</v>
       </c>
       <c r="H91" s="3">
-        <v>-65700</v>
+        <v>-64100</v>
       </c>
       <c r="I91" s="3">
-        <v>-61500</v>
+        <v>-60100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164500</v>
+        <v>-160700</v>
       </c>
       <c r="E94" s="3">
-        <v>-152100</v>
+        <v>-148500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2587200</v>
+        <v>-2526000</v>
       </c>
       <c r="G94" s="3">
-        <v>-143100</v>
+        <v>-139700</v>
       </c>
       <c r="H94" s="3">
-        <v>-225200</v>
+        <v>-219900</v>
       </c>
       <c r="I94" s="3">
-        <v>-147900</v>
+        <v>-144500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-414800</v>
+        <v>-405000</v>
       </c>
       <c r="E100" s="3">
-        <v>-324900</v>
+        <v>-317300</v>
       </c>
       <c r="F100" s="3">
-        <v>2337600</v>
+        <v>2282300</v>
       </c>
       <c r="G100" s="3">
-        <v>-33200</v>
+        <v>-32400</v>
       </c>
       <c r="H100" s="3">
-        <v>70100</v>
+        <v>68400</v>
       </c>
       <c r="I100" s="3">
-        <v>67200</v>
+        <v>65600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="E101" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="F101" s="3">
-        <v>-13100</v>
+        <v>-12800</v>
       </c>
       <c r="G101" s="3">
         <v>-300</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="E102" s="3">
-        <v>-52500</v>
+        <v>-51300</v>
       </c>
       <c r="F102" s="3">
-        <v>100900</v>
+        <v>98600</v>
       </c>
       <c r="G102" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="H102" s="3">
-        <v>-27400</v>
+        <v>-26700</v>
       </c>
       <c r="I102" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3331800</v>
+        <v>3333500</v>
       </c>
       <c r="E8" s="3">
-        <v>2961900</v>
+        <v>2963400</v>
       </c>
       <c r="F8" s="3">
-        <v>2135200</v>
+        <v>2136300</v>
       </c>
       <c r="G8" s="3">
-        <v>1376500</v>
+        <v>1377200</v>
       </c>
       <c r="H8" s="3">
-        <v>1126700</v>
+        <v>1127300</v>
       </c>
       <c r="I8" s="3">
-        <v>773800</v>
+        <v>774200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>631800</v>
+        <v>632100</v>
       </c>
       <c r="E9" s="3">
-        <v>583200</v>
+        <v>583500</v>
       </c>
       <c r="F9" s="3">
-        <v>328700</v>
+        <v>328900</v>
       </c>
       <c r="G9" s="3">
-        <v>239100</v>
+        <v>239200</v>
       </c>
       <c r="H9" s="3">
-        <v>235300</v>
+        <v>235400</v>
       </c>
       <c r="I9" s="3">
-        <v>132400</v>
+        <v>132500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2700000</v>
+        <v>2701400</v>
       </c>
       <c r="E10" s="3">
-        <v>2378700</v>
+        <v>2379900</v>
       </c>
       <c r="F10" s="3">
-        <v>1806400</v>
+        <v>1807400</v>
       </c>
       <c r="G10" s="3">
-        <v>1137400</v>
+        <v>1138000</v>
       </c>
       <c r="H10" s="3">
-        <v>891400</v>
+        <v>891900</v>
       </c>
       <c r="I10" s="3">
-        <v>641400</v>
+        <v>641700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -904,7 +904,7 @@
         <v>31100</v>
       </c>
       <c r="F14" s="3">
-        <v>79200</v>
+        <v>79300</v>
       </c>
       <c r="G14" s="3">
         <v>8200</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>348300</v>
+        <v>348500</v>
       </c>
       <c r="E15" s="3">
-        <v>347000</v>
+        <v>347100</v>
       </c>
       <c r="F15" s="3">
-        <v>246000</v>
+        <v>246100</v>
       </c>
       <c r="G15" s="3">
         <v>124500</v>
       </c>
       <c r="H15" s="3">
-        <v>66800</v>
+        <v>66900</v>
       </c>
       <c r="I15" s="3">
         <v>43500</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2948400</v>
+        <v>2949900</v>
       </c>
       <c r="E17" s="3">
-        <v>2712200</v>
+        <v>2713600</v>
       </c>
       <c r="F17" s="3">
-        <v>1971900</v>
+        <v>1973000</v>
       </c>
       <c r="G17" s="3">
-        <v>1222400</v>
+        <v>1223100</v>
       </c>
       <c r="H17" s="3">
-        <v>1008300</v>
+        <v>1008800</v>
       </c>
       <c r="I17" s="3">
-        <v>681100</v>
+        <v>681400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>383400</v>
+        <v>383600</v>
       </c>
       <c r="E18" s="3">
-        <v>249800</v>
+        <v>249900</v>
       </c>
       <c r="F18" s="3">
-        <v>163200</v>
+        <v>163300</v>
       </c>
       <c r="G18" s="3">
-        <v>154000</v>
+        <v>154100</v>
       </c>
       <c r="H18" s="3">
-        <v>118400</v>
+        <v>118500</v>
       </c>
       <c r="I18" s="3">
-        <v>92700</v>
+        <v>92800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="E20" s="3">
         <v>1400</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>739900</v>
+        <v>741500</v>
       </c>
       <c r="E21" s="3">
-        <v>596800</v>
+        <v>598400</v>
       </c>
       <c r="F21" s="3">
-        <v>509500</v>
+        <v>510700</v>
       </c>
       <c r="G21" s="3">
-        <v>301300</v>
+        <v>301900</v>
       </c>
       <c r="H21" s="3">
-        <v>191100</v>
+        <v>191400</v>
       </c>
       <c r="I21" s="3">
-        <v>136700</v>
+        <v>137000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1156,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>337500</v>
+        <v>337700</v>
       </c>
       <c r="E23" s="3">
-        <v>191700</v>
+        <v>191800</v>
       </c>
       <c r="F23" s="3">
-        <v>203200</v>
+        <v>203300</v>
       </c>
       <c r="G23" s="3">
         <v>128300</v>
@@ -1255,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>247100</v>
+        <v>247200</v>
       </c>
       <c r="E26" s="3">
-        <v>105300</v>
+        <v>105400</v>
       </c>
       <c r="F26" s="3">
-        <v>138900</v>
+        <v>139000</v>
       </c>
       <c r="G26" s="3">
         <v>93200</v>
@@ -1288,13 +1288,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>247100</v>
+        <v>247200</v>
       </c>
       <c r="E27" s="3">
-        <v>105300</v>
+        <v>105400</v>
       </c>
       <c r="F27" s="3">
-        <v>138900</v>
+        <v>139000</v>
       </c>
       <c r="G27" s="3">
         <v>93200</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="E32" s="3">
         <v>-1400</v>
@@ -1486,13 +1486,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>247100</v>
+        <v>247200</v>
       </c>
       <c r="E33" s="3">
-        <v>105300</v>
+        <v>105400</v>
       </c>
       <c r="F33" s="3">
-        <v>138900</v>
+        <v>139000</v>
       </c>
       <c r="G33" s="3">
         <v>93200</v>
@@ -1552,13 +1552,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>247100</v>
+        <v>247200</v>
       </c>
       <c r="E35" s="3">
-        <v>105300</v>
+        <v>105400</v>
       </c>
       <c r="F35" s="3">
-        <v>138900</v>
+        <v>139000</v>
       </c>
       <c r="G35" s="3">
         <v>93200</v>
@@ -1659,10 +1659,10 @@
         <v>155300</v>
       </c>
       <c r="F41" s="3">
-        <v>206600</v>
+        <v>206700</v>
       </c>
       <c r="G41" s="3">
-        <v>107300</v>
+        <v>107400</v>
       </c>
       <c r="H41" s="3">
         <v>88600</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>696600</v>
+        <v>697000</v>
       </c>
       <c r="E43" s="3">
-        <v>638600</v>
+        <v>638900</v>
       </c>
       <c r="F43" s="3">
-        <v>909000</v>
+        <v>909400</v>
       </c>
       <c r="G43" s="3">
-        <v>293900</v>
+        <v>294000</v>
       </c>
       <c r="H43" s="3">
-        <v>215600</v>
+        <v>215700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>938300</v>
+        <v>938700</v>
       </c>
       <c r="E46" s="3">
-        <v>846500</v>
+        <v>846900</v>
       </c>
       <c r="F46" s="3">
-        <v>739800</v>
+        <v>740200</v>
       </c>
       <c r="G46" s="3">
-        <v>443300</v>
+        <v>443600</v>
       </c>
       <c r="H46" s="3">
-        <v>337000</v>
+        <v>337100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>606200</v>
+        <v>606500</v>
       </c>
       <c r="E48" s="3">
-        <v>546800</v>
+        <v>547000</v>
       </c>
       <c r="F48" s="3">
-        <v>488700</v>
+        <v>489000</v>
       </c>
       <c r="G48" s="3">
-        <v>406400</v>
+        <v>406600</v>
       </c>
       <c r="H48" s="3">
-        <v>155500</v>
+        <v>155600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3183300</v>
+        <v>3185000</v>
       </c>
       <c r="E49" s="3">
-        <v>3426300</v>
+        <v>3428100</v>
       </c>
       <c r="F49" s="3">
-        <v>3966700</v>
+        <v>3968800</v>
       </c>
       <c r="G49" s="3">
-        <v>685900</v>
+        <v>686300</v>
       </c>
       <c r="H49" s="3">
-        <v>710100</v>
+        <v>710500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4800600</v>
+        <v>4803100</v>
       </c>
       <c r="E54" s="3">
-        <v>4895100</v>
+        <v>4897600</v>
       </c>
       <c r="F54" s="3">
-        <v>5038200</v>
+        <v>5040800</v>
       </c>
       <c r="G54" s="3">
-        <v>1578200</v>
+        <v>1579000</v>
       </c>
       <c r="H54" s="3">
-        <v>1227300</v>
+        <v>1227900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>391500</v>
+        <v>391700</v>
       </c>
       <c r="E57" s="3">
-        <v>441500</v>
+        <v>441700</v>
       </c>
       <c r="F57" s="3">
-        <v>342900</v>
+        <v>343100</v>
       </c>
       <c r="G57" s="3">
-        <v>205500</v>
+        <v>205600</v>
       </c>
       <c r="H57" s="3">
-        <v>156200</v>
+        <v>156300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2181,10 +2181,10 @@
         <v>112100</v>
       </c>
       <c r="E58" s="3">
-        <v>442800</v>
+        <v>443000</v>
       </c>
       <c r="F58" s="3">
-        <v>124200</v>
+        <v>124300</v>
       </c>
       <c r="G58" s="3">
         <v>57800</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>241700</v>
+        <v>241800</v>
       </c>
       <c r="E59" s="3">
-        <v>205200</v>
+        <v>205300</v>
       </c>
       <c r="F59" s="3">
-        <v>213300</v>
+        <v>213400</v>
       </c>
       <c r="G59" s="3">
-        <v>109200</v>
+        <v>109300</v>
       </c>
       <c r="H59" s="3">
         <v>95600</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>745200</v>
+        <v>745600</v>
       </c>
       <c r="E60" s="3">
-        <v>1089500</v>
+        <v>1090000</v>
       </c>
       <c r="F60" s="3">
-        <v>680400</v>
+        <v>680800</v>
       </c>
       <c r="G60" s="3">
-        <v>372500</v>
+        <v>372700</v>
       </c>
       <c r="H60" s="3">
-        <v>259900</v>
+        <v>260000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1189400</v>
+        <v>1190000</v>
       </c>
       <c r="E61" s="3">
-        <v>1107000</v>
+        <v>1107600</v>
       </c>
       <c r="F61" s="3">
-        <v>2259900</v>
+        <v>2261100</v>
       </c>
       <c r="G61" s="3">
-        <v>644900</v>
+        <v>645200</v>
       </c>
       <c r="H61" s="3">
-        <v>407700</v>
+        <v>407900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>384800</v>
+        <v>384900</v>
       </c>
       <c r="E62" s="3">
-        <v>464400</v>
+        <v>464600</v>
       </c>
       <c r="F62" s="3">
-        <v>624600</v>
+        <v>625000</v>
       </c>
       <c r="G62" s="3">
-        <v>229000</v>
+        <v>229100</v>
       </c>
       <c r="H62" s="3">
-        <v>294200</v>
+        <v>294300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2319300</v>
+        <v>2320500</v>
       </c>
       <c r="E66" s="3">
-        <v>2660900</v>
+        <v>2662200</v>
       </c>
       <c r="F66" s="3">
-        <v>3538400</v>
+        <v>3540200</v>
       </c>
       <c r="G66" s="3">
-        <v>1246300</v>
+        <v>1247000</v>
       </c>
       <c r="H66" s="3">
-        <v>961700</v>
+        <v>962200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,7 +2622,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>394200</v>
+        <v>394400</v>
       </c>
       <c r="E72" s="3">
         <v>144500</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2481300</v>
+        <v>2482600</v>
       </c>
       <c r="E76" s="3">
-        <v>2234300</v>
+        <v>2235400</v>
       </c>
       <c r="F76" s="3">
-        <v>1499900</v>
+        <v>1500600</v>
       </c>
       <c r="G76" s="3">
-        <v>331800</v>
+        <v>332000</v>
       </c>
       <c r="H76" s="3">
-        <v>265500</v>
+        <v>265700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>247100</v>
+        <v>247200</v>
       </c>
       <c r="E81" s="3">
-        <v>105300</v>
+        <v>105400</v>
       </c>
       <c r="F81" s="3">
-        <v>138900</v>
+        <v>139000</v>
       </c>
       <c r="G81" s="3">
         <v>93200</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>348300</v>
+        <v>348500</v>
       </c>
       <c r="E83" s="3">
-        <v>347000</v>
+        <v>347100</v>
       </c>
       <c r="F83" s="3">
-        <v>246000</v>
+        <v>246100</v>
       </c>
       <c r="G83" s="3">
         <v>124500</v>
       </c>
       <c r="H83" s="3">
-        <v>66800</v>
+        <v>66900</v>
       </c>
       <c r="I83" s="3">
         <v>43500</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>590000</v>
+        <v>590300</v>
       </c>
       <c r="E89" s="3">
-        <v>419900</v>
+        <v>420100</v>
       </c>
       <c r="F89" s="3">
-        <v>355100</v>
+        <v>355200</v>
       </c>
       <c r="G89" s="3">
-        <v>191200</v>
+        <v>191300</v>
       </c>
       <c r="H89" s="3">
-        <v>126200</v>
+        <v>126300</v>
       </c>
       <c r="I89" s="3">
-        <v>122700</v>
+        <v>122800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3158,13 +3158,13 @@
         <v>-133700</v>
       </c>
       <c r="F91" s="3">
-        <v>-79900</v>
+        <v>-80000</v>
       </c>
       <c r="G91" s="3">
-        <v>-71100</v>
+        <v>-71200</v>
       </c>
       <c r="H91" s="3">
-        <v>-64100</v>
+        <v>-64200</v>
       </c>
       <c r="I91" s="3">
         <v>-60100</v>
@@ -3254,16 +3254,16 @@
         <v>-160700</v>
       </c>
       <c r="E94" s="3">
-        <v>-148500</v>
+        <v>-148600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2526000</v>
+        <v>-2527300</v>
       </c>
       <c r="G94" s="3">
-        <v>-139700</v>
+        <v>-139800</v>
       </c>
       <c r="H94" s="3">
-        <v>-219900</v>
+        <v>-220000</v>
       </c>
       <c r="I94" s="3">
         <v>-144500</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-405000</v>
+        <v>-405200</v>
       </c>
       <c r="E100" s="3">
-        <v>-317300</v>
+        <v>-317400</v>
       </c>
       <c r="F100" s="3">
-        <v>2282300</v>
+        <v>2283500</v>
       </c>
       <c r="G100" s="3">
         <v>-32400</v>
       </c>
       <c r="H100" s="3">
-        <v>68400</v>
+        <v>68500</v>
       </c>
       <c r="I100" s="3">
         <v>65600</v>

--- a/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TIXT_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3333500</v>
+        <v>3394700</v>
       </c>
       <c r="E8" s="3">
-        <v>2963400</v>
+        <v>3017800</v>
       </c>
       <c r="F8" s="3">
-        <v>2136300</v>
+        <v>2175500</v>
       </c>
       <c r="G8" s="3">
-        <v>1377200</v>
+        <v>1402500</v>
       </c>
       <c r="H8" s="3">
-        <v>1127300</v>
+        <v>1148000</v>
       </c>
       <c r="I8" s="3">
-        <v>774200</v>
+        <v>788400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>632100</v>
+        <v>643700</v>
       </c>
       <c r="E9" s="3">
-        <v>583500</v>
+        <v>594200</v>
       </c>
       <c r="F9" s="3">
-        <v>328900</v>
+        <v>334900</v>
       </c>
       <c r="G9" s="3">
-        <v>239200</v>
+        <v>243600</v>
       </c>
       <c r="H9" s="3">
-        <v>235400</v>
+        <v>239700</v>
       </c>
       <c r="I9" s="3">
-        <v>132500</v>
+        <v>134900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2701400</v>
+        <v>2751000</v>
       </c>
       <c r="E10" s="3">
-        <v>2379900</v>
+        <v>2423600</v>
       </c>
       <c r="F10" s="3">
-        <v>1807400</v>
+        <v>1840600</v>
       </c>
       <c r="G10" s="3">
-        <v>1138000</v>
+        <v>1158900</v>
       </c>
       <c r="H10" s="3">
-        <v>891900</v>
+        <v>908200</v>
       </c>
       <c r="I10" s="3">
-        <v>641700</v>
+        <v>653500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,22 +898,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>54000</v>
+        <v>55000</v>
       </c>
       <c r="E14" s="3">
-        <v>31100</v>
+        <v>31600</v>
       </c>
       <c r="F14" s="3">
-        <v>79300</v>
+        <v>80700</v>
       </c>
       <c r="G14" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="H14" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I14" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -931,22 +931,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>348500</v>
+        <v>354900</v>
       </c>
       <c r="E15" s="3">
-        <v>347100</v>
+        <v>353500</v>
       </c>
       <c r="F15" s="3">
-        <v>246100</v>
+        <v>250600</v>
       </c>
       <c r="G15" s="3">
-        <v>124500</v>
+        <v>126800</v>
       </c>
       <c r="H15" s="3">
-        <v>66900</v>
+        <v>68100</v>
       </c>
       <c r="I15" s="3">
-        <v>43500</v>
+        <v>44300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2949900</v>
+        <v>3004100</v>
       </c>
       <c r="E17" s="3">
-        <v>2713600</v>
+        <v>2763400</v>
       </c>
       <c r="F17" s="3">
-        <v>1973000</v>
+        <v>2009200</v>
       </c>
       <c r="G17" s="3">
-        <v>1223100</v>
+        <v>1245500</v>
       </c>
       <c r="H17" s="3">
-        <v>1008800</v>
+        <v>1027400</v>
       </c>
       <c r="I17" s="3">
-        <v>681400</v>
+        <v>693900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>383600</v>
+        <v>390600</v>
       </c>
       <c r="E18" s="3">
-        <v>249900</v>
+        <v>254500</v>
       </c>
       <c r="F18" s="3">
-        <v>163300</v>
+        <v>166300</v>
       </c>
       <c r="G18" s="3">
-        <v>154100</v>
+        <v>156900</v>
       </c>
       <c r="H18" s="3">
-        <v>118500</v>
+        <v>120600</v>
       </c>
       <c r="I18" s="3">
-        <v>92800</v>
+        <v>94500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E20" s="3">
         <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>101300</v>
+        <v>103200</v>
       </c>
       <c r="G20" s="3">
-        <v>23200</v>
+        <v>23700</v>
       </c>
       <c r="H20" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>741500</v>
+        <v>753200</v>
       </c>
       <c r="E21" s="3">
-        <v>598400</v>
+        <v>607400</v>
       </c>
       <c r="F21" s="3">
-        <v>510700</v>
+        <v>518700</v>
       </c>
       <c r="G21" s="3">
-        <v>301900</v>
+        <v>306700</v>
       </c>
       <c r="H21" s="3">
-        <v>191400</v>
+        <v>194500</v>
       </c>
       <c r="I21" s="3">
-        <v>137000</v>
+        <v>139200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55400</v>
+        <v>56400</v>
       </c>
       <c r="E22" s="3">
-        <v>59400</v>
+        <v>60500</v>
       </c>
       <c r="F22" s="3">
-        <v>61300</v>
+        <v>62400</v>
       </c>
       <c r="G22" s="3">
-        <v>49000</v>
+        <v>49900</v>
       </c>
       <c r="H22" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="I22" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>337700</v>
+        <v>343900</v>
       </c>
       <c r="E23" s="3">
-        <v>191800</v>
+        <v>195300</v>
       </c>
       <c r="F23" s="3">
-        <v>203300</v>
+        <v>207000</v>
       </c>
       <c r="G23" s="3">
-        <v>128300</v>
+        <v>130700</v>
       </c>
       <c r="H23" s="3">
-        <v>93200</v>
+        <v>94900</v>
       </c>
       <c r="I23" s="3">
-        <v>79800</v>
+        <v>81300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90500</v>
+        <v>92200</v>
       </c>
       <c r="E24" s="3">
-        <v>86400</v>
+        <v>88000</v>
       </c>
       <c r="F24" s="3">
-        <v>64300</v>
+        <v>65500</v>
       </c>
       <c r="G24" s="3">
-        <v>35100</v>
+        <v>35800</v>
       </c>
       <c r="H24" s="3">
-        <v>29600</v>
+        <v>30100</v>
       </c>
       <c r="I24" s="3">
-        <v>21200</v>
+        <v>21600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>247200</v>
+        <v>251700</v>
       </c>
       <c r="E26" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="F26" s="3">
-        <v>139000</v>
+        <v>141500</v>
       </c>
       <c r="G26" s="3">
-        <v>93200</v>
+        <v>94900</v>
       </c>
       <c r="H26" s="3">
-        <v>63600</v>
+        <v>64800</v>
       </c>
       <c r="I26" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>247200</v>
+        <v>251700</v>
       </c>
       <c r="E27" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="F27" s="3">
-        <v>139000</v>
+        <v>141500</v>
       </c>
       <c r="G27" s="3">
-        <v>93200</v>
+        <v>94900</v>
       </c>
       <c r="H27" s="3">
-        <v>63600</v>
+        <v>64800</v>
       </c>
       <c r="I27" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="E32" s="3">
         <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-101300</v>
+        <v>-103200</v>
       </c>
       <c r="G32" s="3">
-        <v>-23200</v>
+        <v>-23700</v>
       </c>
       <c r="H32" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>247200</v>
+        <v>251700</v>
       </c>
       <c r="E33" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="F33" s="3">
-        <v>139000</v>
+        <v>141500</v>
       </c>
       <c r="G33" s="3">
-        <v>93200</v>
+        <v>94900</v>
       </c>
       <c r="H33" s="3">
-        <v>63600</v>
+        <v>64800</v>
       </c>
       <c r="I33" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>247200</v>
+        <v>251700</v>
       </c>
       <c r="E35" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="F35" s="3">
-        <v>139000</v>
+        <v>141500</v>
       </c>
       <c r="G35" s="3">
-        <v>93200</v>
+        <v>94900</v>
       </c>
       <c r="H35" s="3">
-        <v>63600</v>
+        <v>64800</v>
       </c>
       <c r="I35" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>168800</v>
+        <v>171900</v>
       </c>
       <c r="E41" s="3">
-        <v>155300</v>
+        <v>158200</v>
       </c>
       <c r="F41" s="3">
-        <v>206700</v>
+        <v>210500</v>
       </c>
       <c r="G41" s="3">
-        <v>107400</v>
+        <v>109400</v>
       </c>
       <c r="H41" s="3">
-        <v>88600</v>
+        <v>90200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>697000</v>
+        <v>709800</v>
       </c>
       <c r="E43" s="3">
-        <v>638900</v>
+        <v>650600</v>
       </c>
       <c r="F43" s="3">
-        <v>909400</v>
+        <v>926100</v>
       </c>
       <c r="G43" s="3">
-        <v>294000</v>
+        <v>299400</v>
       </c>
       <c r="H43" s="3">
-        <v>215700</v>
+        <v>219700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72900</v>
+        <v>74300</v>
       </c>
       <c r="E45" s="3">
-        <v>52700</v>
+        <v>53600</v>
       </c>
       <c r="F45" s="3">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="G45" s="3">
-        <v>42100</v>
+        <v>42900</v>
       </c>
       <c r="H45" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>938700</v>
+        <v>956000</v>
       </c>
       <c r="E46" s="3">
-        <v>846900</v>
+        <v>862400</v>
       </c>
       <c r="F46" s="3">
-        <v>740200</v>
+        <v>753800</v>
       </c>
       <c r="G46" s="3">
-        <v>443600</v>
+        <v>451700</v>
       </c>
       <c r="H46" s="3">
-        <v>337100</v>
+        <v>343300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>606500</v>
+        <v>617600</v>
       </c>
       <c r="E48" s="3">
-        <v>547000</v>
+        <v>557100</v>
       </c>
       <c r="F48" s="3">
-        <v>489000</v>
+        <v>497900</v>
       </c>
       <c r="G48" s="3">
-        <v>406600</v>
+        <v>414000</v>
       </c>
       <c r="H48" s="3">
-        <v>155600</v>
+        <v>158500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3185000</v>
+        <v>3243400</v>
       </c>
       <c r="E49" s="3">
-        <v>3428100</v>
+        <v>3491000</v>
       </c>
       <c r="F49" s="3">
-        <v>3968800</v>
+        <v>4041600</v>
       </c>
       <c r="G49" s="3">
-        <v>686300</v>
+        <v>698900</v>
       </c>
       <c r="H49" s="3">
-        <v>710500</v>
+        <v>723500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72900</v>
+        <v>74300</v>
       </c>
       <c r="E52" s="3">
-        <v>75600</v>
+        <v>77000</v>
       </c>
       <c r="F52" s="3">
-        <v>55400</v>
+        <v>56400</v>
       </c>
       <c r="G52" s="3">
-        <v>42500</v>
+        <v>43300</v>
       </c>
       <c r="H52" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4803100</v>
+        <v>4891300</v>
       </c>
       <c r="E54" s="3">
-        <v>4897600</v>
+        <v>4987600</v>
       </c>
       <c r="F54" s="3">
-        <v>5040800</v>
+        <v>5133400</v>
       </c>
       <c r="G54" s="3">
-        <v>1579000</v>
+        <v>1608000</v>
       </c>
       <c r="H54" s="3">
-        <v>1227900</v>
+        <v>1250500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>391700</v>
+        <v>398900</v>
       </c>
       <c r="E57" s="3">
-        <v>441700</v>
+        <v>449800</v>
       </c>
       <c r="F57" s="3">
-        <v>343100</v>
+        <v>349400</v>
       </c>
       <c r="G57" s="3">
-        <v>205600</v>
+        <v>209400</v>
       </c>
       <c r="H57" s="3">
-        <v>156300</v>
+        <v>159100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>112100</v>
+        <v>114200</v>
       </c>
       <c r="E58" s="3">
-        <v>443000</v>
+        <v>451200</v>
       </c>
       <c r="F58" s="3">
-        <v>124300</v>
+        <v>126500</v>
       </c>
       <c r="G58" s="3">
-        <v>57800</v>
+        <v>58900</v>
       </c>
       <c r="H58" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>241800</v>
+        <v>246200</v>
       </c>
       <c r="E59" s="3">
-        <v>205300</v>
+        <v>209100</v>
       </c>
       <c r="F59" s="3">
-        <v>213400</v>
+        <v>217300</v>
       </c>
       <c r="G59" s="3">
-        <v>109300</v>
+        <v>111300</v>
       </c>
       <c r="H59" s="3">
-        <v>95600</v>
+        <v>97400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>745600</v>
+        <v>759300</v>
       </c>
       <c r="E60" s="3">
-        <v>1090000</v>
+        <v>1110000</v>
       </c>
       <c r="F60" s="3">
-        <v>680800</v>
+        <v>693300</v>
       </c>
       <c r="G60" s="3">
-        <v>372700</v>
+        <v>379500</v>
       </c>
       <c r="H60" s="3">
-        <v>260000</v>
+        <v>264800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1190000</v>
+        <v>1211800</v>
       </c>
       <c r="E61" s="3">
-        <v>1107600</v>
+        <v>1127900</v>
       </c>
       <c r="F61" s="3">
-        <v>2261100</v>
+        <v>2302600</v>
       </c>
       <c r="G61" s="3">
-        <v>645200</v>
+        <v>657100</v>
       </c>
       <c r="H61" s="3">
-        <v>407900</v>
+        <v>415400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>384900</v>
+        <v>392000</v>
       </c>
       <c r="E62" s="3">
-        <v>464600</v>
+        <v>473200</v>
       </c>
       <c r="F62" s="3">
-        <v>625000</v>
+        <v>636400</v>
       </c>
       <c r="G62" s="3">
-        <v>229100</v>
+        <v>233300</v>
       </c>
       <c r="H62" s="3">
-        <v>294300</v>
+        <v>299700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2320500</v>
+        <v>2363100</v>
       </c>
       <c r="E66" s="3">
-        <v>2662200</v>
+        <v>2711100</v>
       </c>
       <c r="F66" s="3">
-        <v>3540200</v>
+        <v>3605200</v>
       </c>
       <c r="G66" s="3">
-        <v>1247000</v>
+        <v>1269900</v>
       </c>
       <c r="H66" s="3">
-        <v>962200</v>
+        <v>979900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,13 +2622,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>394400</v>
+        <v>401600</v>
       </c>
       <c r="E72" s="3">
-        <v>144500</v>
+        <v>147200</v>
       </c>
       <c r="F72" s="3">
-        <v>44600</v>
+        <v>45400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2482600</v>
+        <v>2528200</v>
       </c>
       <c r="E76" s="3">
-        <v>2235400</v>
+        <v>2276500</v>
       </c>
       <c r="F76" s="3">
-        <v>1500600</v>
+        <v>1528200</v>
       </c>
       <c r="G76" s="3">
-        <v>332000</v>
+        <v>338100</v>
       </c>
       <c r="H76" s="3">
-        <v>265700</v>
+        <v>270600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>247200</v>
+        <v>251700</v>
       </c>
       <c r="E81" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="F81" s="3">
-        <v>139000</v>
+        <v>141500</v>
       </c>
       <c r="G81" s="3">
-        <v>93200</v>
+        <v>94900</v>
       </c>
       <c r="H81" s="3">
-        <v>63600</v>
+        <v>64800</v>
       </c>
       <c r="I81" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>348500</v>
+        <v>354900</v>
       </c>
       <c r="E83" s="3">
-        <v>347100</v>
+        <v>353500</v>
       </c>
       <c r="F83" s="3">
-        <v>246100</v>
+        <v>250600</v>
       </c>
       <c r="G83" s="3">
-        <v>124500</v>
+        <v>126800</v>
       </c>
       <c r="H83" s="3">
-        <v>66900</v>
+        <v>68100</v>
       </c>
       <c r="I83" s="3">
-        <v>43500</v>
+        <v>44300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>590300</v>
+        <v>601100</v>
       </c>
       <c r="E89" s="3">
-        <v>420100</v>
+        <v>427800</v>
       </c>
       <c r="F89" s="3">
-        <v>355200</v>
+        <v>361800</v>
       </c>
       <c r="G89" s="3">
-        <v>191300</v>
+        <v>194800</v>
       </c>
       <c r="H89" s="3">
-        <v>126300</v>
+        <v>128600</v>
       </c>
       <c r="I89" s="3">
-        <v>122800</v>
+        <v>125000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-141800</v>
+        <v>-144400</v>
       </c>
       <c r="E91" s="3">
-        <v>-133700</v>
+        <v>-136200</v>
       </c>
       <c r="F91" s="3">
-        <v>-80000</v>
+        <v>-81400</v>
       </c>
       <c r="G91" s="3">
-        <v>-71200</v>
+        <v>-72500</v>
       </c>
       <c r="H91" s="3">
-        <v>-64200</v>
+        <v>-65300</v>
       </c>
       <c r="I91" s="3">
-        <v>-60100</v>
+        <v>-61200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-160700</v>
+        <v>-163700</v>
       </c>
       <c r="E94" s="3">
-        <v>-148600</v>
+        <v>-151300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2527300</v>
+        <v>-2573700</v>
       </c>
       <c r="G94" s="3">
-        <v>-139800</v>
+        <v>-142400</v>
       </c>
       <c r="H94" s="3">
-        <v>-220000</v>
+        <v>-224100</v>
       </c>
       <c r="I94" s="3">
-        <v>-144500</v>
+        <v>-147200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-405200</v>
+        <v>-412700</v>
       </c>
       <c r="E100" s="3">
-        <v>-317400</v>
+        <v>-323200</v>
       </c>
       <c r="F100" s="3">
-        <v>2283500</v>
+        <v>2325400</v>
       </c>
       <c r="G100" s="3">
-        <v>-32400</v>
+        <v>-33000</v>
       </c>
       <c r="H100" s="3">
-        <v>68500</v>
+        <v>69700</v>
       </c>
       <c r="I100" s="3">
-        <v>65600</v>
+        <v>66800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="E101" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="F101" s="3">
-        <v>-12800</v>
+        <v>-13100</v>
       </c>
       <c r="G101" s="3">
         <v>-300</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="E102" s="3">
-        <v>-51300</v>
+        <v>-52300</v>
       </c>
       <c r="F102" s="3">
-        <v>98600</v>
+        <v>100400</v>
       </c>
       <c r="G102" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="H102" s="3">
-        <v>-26700</v>
+        <v>-27200</v>
       </c>
       <c r="I102" s="3">
-        <v>45200</v>
+        <v>46100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
